--- a/Resultant predictions and comparisons with Lin model.xlsx
+++ b/Resultant predictions and comparisons with Lin model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5251414_ad_unsw_edu_au/Documents/PhD/Paper/New model development/Final model and data/Data for upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{8CA20858-5EE1-4FFD-8BE8-50396BA2BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F8105E6-0BDA-4AA1-A758-20AE9B8C8F99}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{8CA20858-5EE1-4FFD-8BE8-50396BA2BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE09F1F-287E-4B80-AE9D-158DD82FA3A4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Data number </t>
   </si>
@@ -58,12 +58,58 @@
   <si>
     <t>SH (MPa)</t>
   </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lin, H., Singh, S., Oh, J., Canbulat, I., Kang, W. H., Hebblewhite, B., &amp; Stacey, T. R. (2020). A combined approach for estimating horizontal principal stress magnitudes from borehole breakout data via artificial neural network and rock failure criterion. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>International Journal of Rock Mechanics and Mining Sciences</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>136</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 104539. https://doi.org/10.1016/j.ijrmms.2020.104539</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +124,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,10 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,16 +451,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -411,16 +475,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -434,20 +501,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>52.330274384701603</v>
+        <v>54.129101542830398</v>
       </c>
       <c r="F2" s="2">
-        <v>10.4176091080656</v>
+        <v>19.827852993309399</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2">
-        <v>54.129101542830398</v>
+        <v>52.330274384701603</v>
       </c>
       <c r="I2" s="2">
-        <v>19.827852993309399</v>
+        <v>10.4176091080656</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -460,17 +529,17 @@
         <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>57.195010671159302</v>
+        <v>60.406569176316196</v>
       </c>
       <c r="F3" s="2">
-        <v>10.595661613716</v>
+        <v>17.806538837552001</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
-        <v>60.406569176316196</v>
+        <v>57.195010671159302</v>
       </c>
       <c r="I3" s="2">
-        <v>17.806538837552001</v>
+        <v>10.595661613716</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -486,17 +555,17 @@
         <v>14</v>
       </c>
       <c r="E4" s="2">
-        <v>64.552607789868503</v>
+        <v>72.576846006512497</v>
       </c>
       <c r="F4" s="2">
-        <v>11.1264160916449</v>
+        <v>19.620945541560602</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
-        <v>72.576846006512497</v>
+        <v>64.552607789868503</v>
       </c>
       <c r="I4" s="2">
-        <v>19.620945541560602</v>
+        <v>11.1264160916449</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -512,17 +581,17 @@
         <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>83.176894241245506</v>
+        <v>63.232594659328399</v>
       </c>
       <c r="F5" s="2">
-        <v>12.470193966435099</v>
+        <v>11.9475253868102</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
-        <v>63.232594659328399</v>
+        <v>83.176894241245506</v>
       </c>
       <c r="I5" s="2">
-        <v>11.9475253868102</v>
+        <v>12.470193966435099</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -538,17 +607,17 @@
         <v>21</v>
       </c>
       <c r="E6" s="2">
-        <v>58.6786170136184</v>
+        <v>61.596068267822197</v>
       </c>
       <c r="F6" s="2">
-        <v>19.100621309459498</v>
+        <v>22.838954349458199</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
-        <v>61.596068267822197</v>
+        <v>58.6786170136184</v>
       </c>
       <c r="I6" s="2">
-        <v>22.838954349458199</v>
+        <v>19.100621309459498</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -564,17 +633,17 @@
         <v>21</v>
       </c>
       <c r="E7" s="2">
-        <v>59.931484906817801</v>
+        <v>60.887771949768002</v>
       </c>
       <c r="F7" s="2">
-        <v>18.999993130483301</v>
+        <v>20.455256350934398</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
-        <v>60.887771949768002</v>
+        <v>59.931484906817801</v>
       </c>
       <c r="I7" s="2">
-        <v>20.455256350934398</v>
+        <v>18.999993130483301</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -590,17 +659,17 @@
         <v>21</v>
       </c>
       <c r="E8" s="2">
-        <v>64.163925090804696</v>
+        <v>66.972745265960597</v>
       </c>
       <c r="F8" s="2">
-        <v>18.825057703142502</v>
+        <v>19.680883323401101</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <v>66.972745265960597</v>
+        <v>64.163925090804696</v>
       </c>
       <c r="I8" s="2">
-        <v>19.680883323401101</v>
+        <v>18.825057703142502</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -616,17 +685,17 @@
         <v>21</v>
       </c>
       <c r="E9" s="2">
-        <v>65.9784401799552</v>
+        <v>74.601019124984603</v>
       </c>
       <c r="F9" s="2">
-        <v>18.7992046304581</v>
+        <v>22.013527237027802</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
-        <v>74.601019124984603</v>
+        <v>65.9784401799552</v>
       </c>
       <c r="I9" s="2">
-        <v>22.013527237027802</v>
+        <v>18.7992046304581</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -642,17 +711,17 @@
         <v>21</v>
       </c>
       <c r="E10" s="2">
-        <v>69.735564312432004</v>
+        <v>75.579923555850897</v>
       </c>
       <c r="F10" s="2">
-        <v>18.797599899822099</v>
+        <v>21.310353112518701</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
-        <v>75.579923555850897</v>
+        <v>69.735564312432004</v>
       </c>
       <c r="I10" s="2">
-        <v>21.310353112518701</v>
+        <v>18.797599899822099</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -668,17 +737,17 @@
         <v>21</v>
       </c>
       <c r="E11" s="2">
-        <v>81.114220726303799</v>
+        <v>74.308926141261907</v>
       </c>
       <c r="F11" s="2">
-        <v>18.9686095900129</v>
+        <v>23.012055048644498</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
-        <v>74.308926141261907</v>
+        <v>81.114220726303799</v>
       </c>
       <c r="I11" s="2">
-        <v>23.012055048644498</v>
+        <v>18.9686095900129</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -694,17 +763,17 @@
         <v>28</v>
       </c>
       <c r="E12" s="2">
-        <v>60.366033281898098</v>
+        <v>57.801302943229601</v>
       </c>
       <c r="F12" s="2">
-        <v>31.053389117388601</v>
+        <v>22.921223134100401</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
-        <v>57.801302943229601</v>
+        <v>60.366033281898098</v>
       </c>
       <c r="I12" s="2">
-        <v>22.921223134100401</v>
+        <v>31.053389117388601</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -720,17 +789,17 @@
         <v>28</v>
       </c>
       <c r="E13" s="2">
-        <v>61.647072787862299</v>
+        <v>55.432700487971204</v>
       </c>
       <c r="F13" s="2">
-        <v>30.602422285411802</v>
+        <v>20.741712582856401</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2">
-        <v>55.432700487971204</v>
+        <v>61.647072787862299</v>
       </c>
       <c r="I13" s="2">
-        <v>20.741712582856401</v>
+        <v>30.602422285411802</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -746,17 +815,17 @@
         <v>28</v>
       </c>
       <c r="E14" s="2">
-        <v>68.330357594648405</v>
+        <v>72.352080356478595</v>
       </c>
       <c r="F14" s="2">
-        <v>29.060446727615499</v>
+        <v>22.795159113109001</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
-        <v>72.352080356478595</v>
+        <v>68.330357594648405</v>
       </c>
       <c r="I14" s="2">
-        <v>22.795159113109001</v>
+        <v>29.060446727615499</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -772,17 +841,17 @@
         <v>28</v>
       </c>
       <c r="E15" s="2">
-        <v>69.805838390952005</v>
+        <v>76.011679207086502</v>
       </c>
       <c r="F15" s="2">
-        <v>28.824047288684699</v>
+        <v>24.8859138685464</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2">
-        <v>76.011679207086502</v>
+        <v>69.805838390952005</v>
       </c>
       <c r="I15" s="2">
-        <v>24.8859138685464</v>
+        <v>28.824047288684699</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -798,17 +867,17 @@
         <v>28</v>
       </c>
       <c r="E16" s="2">
-        <v>88.8758908030577</v>
+        <v>83.042988443374497</v>
       </c>
       <c r="F16" s="2">
-        <v>26.936963817841601</v>
+        <v>27.813376119136699</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2">
-        <v>83.042988443374497</v>
+        <v>88.8758908030577</v>
       </c>
       <c r="I16" s="2">
-        <v>27.813376119136699</v>
+        <v>26.936963817841601</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -824,17 +893,17 @@
         <v>35</v>
       </c>
       <c r="E17" s="2">
-        <v>61.386559871025398</v>
+        <v>64.370995639562494</v>
       </c>
       <c r="F17" s="2">
-        <v>44.769998147624399</v>
+        <v>35.698414547741301</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2">
-        <v>64.370995639562494</v>
+        <v>61.386559871025398</v>
       </c>
       <c r="I17" s="2">
-        <v>35.698414547741301</v>
+        <v>44.769998147624399</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -850,17 +919,17 @@
         <v>35</v>
       </c>
       <c r="E18" s="2">
-        <v>63.862696935539098</v>
+        <v>58.757060507535797</v>
       </c>
       <c r="F18" s="2">
-        <v>42.920416171546599</v>
+        <v>28.3975345700979</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2">
-        <v>58.757060507535797</v>
+        <v>63.862696935539098</v>
       </c>
       <c r="I18" s="2">
-        <v>28.3975345700979</v>
+        <v>42.920416171546599</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -876,17 +945,17 @@
         <v>35</v>
       </c>
       <c r="E19" s="2">
-        <v>66.263961175922304</v>
+        <v>68.409645067453297</v>
       </c>
       <c r="F19" s="2">
-        <v>41.606332169225503</v>
+        <v>25.672681696414902</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2">
-        <v>68.409645067453297</v>
+        <v>66.263961175922304</v>
       </c>
       <c r="I19" s="2">
-        <v>25.672681696414902</v>
+        <v>41.606332169225503</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -902,17 +971,17 @@
         <v>35</v>
       </c>
       <c r="E20" s="2">
-        <v>85.039152284618496</v>
+        <v>86.402063259482304</v>
       </c>
       <c r="F20" s="2">
-        <v>36.243458843570899</v>
+        <v>31.601108230352299</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
-        <v>86.402063259482304</v>
+        <v>85.039152284618496</v>
       </c>
       <c r="I20" s="2">
-        <v>31.601108230352299</v>
+        <v>36.243458843570899</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -928,17 +997,17 @@
         <v>35</v>
       </c>
       <c r="E21" s="2">
-        <v>88.435439248802098</v>
+        <v>92.176788215637103</v>
       </c>
       <c r="F21" s="2">
-        <v>35.657868259712302</v>
+        <v>35.513542296588298</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
-        <v>92.176788215637103</v>
+        <v>88.435439248802098</v>
       </c>
       <c r="I21" s="2">
-        <v>35.513542296588298</v>
+        <v>35.657868259712302</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -954,17 +1023,17 @@
         <v>15</v>
       </c>
       <c r="E22" s="2">
-        <v>48.549111615167902</v>
+        <v>47.964046426567798</v>
       </c>
       <c r="F22" s="2">
-        <v>18.185155938904</v>
+        <v>24.467013918757399</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
-        <v>47.964046426567798</v>
+        <v>48.549111615167902</v>
       </c>
       <c r="I22" s="2">
-        <v>24.467013918757399</v>
+        <v>18.185155938904</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -980,17 +1049,17 @@
         <v>15</v>
       </c>
       <c r="E23" s="2">
-        <v>53.617776232771597</v>
+        <v>55.283230305549601</v>
       </c>
       <c r="F23" s="2">
-        <v>18.1475268214569</v>
+        <v>21.249067694863498</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
-        <v>55.283230305549601</v>
+        <v>53.617776232771597</v>
       </c>
       <c r="I23" s="2">
-        <v>21.249067694863498</v>
+        <v>18.1475268214569</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1006,17 +1075,17 @@
         <v>15</v>
       </c>
       <c r="E24" s="2">
-        <v>60.766204688465201</v>
+        <v>56.441266281050197</v>
       </c>
       <c r="F24" s="2">
-        <v>18.740101650828301</v>
+        <v>16.278803921923998</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
-        <v>56.441266281050197</v>
+        <v>60.766204688465201</v>
       </c>
       <c r="I24" s="2">
-        <v>16.278803921923998</v>
+        <v>18.740101650828301</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1032,17 +1101,17 @@
         <v>15</v>
       </c>
       <c r="E25" s="2">
-        <v>67.0054213963449</v>
+        <v>58.787476077384603</v>
       </c>
       <c r="F25" s="2">
-        <v>19.282372741551399</v>
+        <v>14.842367229260599</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2">
-        <v>58.787476077384603</v>
+        <v>67.0054213963449</v>
       </c>
       <c r="I25" s="2">
-        <v>14.842367229260599</v>
+        <v>19.282372741551399</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1058,17 +1127,17 @@
         <v>20</v>
       </c>
       <c r="E26" s="2">
-        <v>60.631177155883101</v>
+        <v>49.441130277805499</v>
       </c>
       <c r="F26" s="2">
-        <v>32.899558578403003</v>
+        <v>23.9843491880976</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
-        <v>49.441130277805499</v>
+        <v>60.631177155883101</v>
       </c>
       <c r="I26" s="2">
-        <v>23.9843491880976</v>
+        <v>32.899558578403003</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1084,17 +1153,17 @@
         <v>20</v>
       </c>
       <c r="E27" s="2">
-        <v>62.852435100823598</v>
+        <v>64.885613023680193</v>
       </c>
       <c r="F27" s="2">
-        <v>32.410644139344797</v>
+        <v>24.452129676494401</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2">
-        <v>64.885613023680193</v>
+        <v>62.852435100823598</v>
       </c>
       <c r="I27" s="2">
-        <v>24.452129676494401</v>
+        <v>32.410644139344797</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1110,17 +1179,17 @@
         <v>20</v>
       </c>
       <c r="E28" s="2">
-        <v>66.327505257213502</v>
+        <v>64.514724859498202</v>
       </c>
       <c r="F28" s="2">
-        <v>31.786637792668799</v>
+        <v>25.273750331270101</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2">
-        <v>64.514724859498202</v>
+        <v>66.327505257213502</v>
       </c>
       <c r="I28" s="2">
-        <v>25.273750331270101</v>
+        <v>31.786637792668799</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1136,17 +1205,17 @@
         <v>25</v>
       </c>
       <c r="E29" s="2">
-        <v>61.084176457952701</v>
+        <v>48.831235723107298</v>
       </c>
       <c r="F29" s="2">
-        <v>32.792284920729998</v>
+        <v>27.610416642960999</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
-        <v>48.831235723107298</v>
+        <v>61.084176457952701</v>
       </c>
       <c r="I29" s="2">
-        <v>27.610416642960999</v>
+        <v>32.792284920729998</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1162,17 +1231,17 @@
         <v>25</v>
       </c>
       <c r="E30" s="2">
-        <v>64.951340457424493</v>
+        <v>65.7568153754777</v>
       </c>
       <c r="F30" s="2">
-        <v>32.017573860288202</v>
+        <v>25.059313921484801</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2">
-        <v>65.7568153754777</v>
+        <v>64.951340457424493</v>
       </c>
       <c r="I30" s="2">
-        <v>25.059313921484801</v>
+        <v>32.017573860288202</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1188,17 +1257,17 @@
         <v>25</v>
       </c>
       <c r="E31" s="2">
-        <v>67.853549336083205</v>
+        <v>67.0928732773869</v>
       </c>
       <c r="F31" s="2">
-        <v>31.550181062556302</v>
+        <v>24.1523584418102</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2">
-        <v>67.0928732773869</v>
+        <v>67.853549336083205</v>
       </c>
       <c r="I31" s="2">
-        <v>24.1523584418102</v>
+        <v>31.550181062556302</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1214,17 +1283,17 @@
         <v>25</v>
       </c>
       <c r="E32" s="2">
-        <v>74.7118631852791</v>
+        <v>74.717388768611897</v>
       </c>
       <c r="F32" s="2">
-        <v>30.665289370394898</v>
+        <v>27.3066847623226</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2">
-        <v>74.717388768611897</v>
+        <v>74.7118631852791</v>
       </c>
       <c r="I32" s="2">
-        <v>27.3066847623226</v>
+        <v>30.665289370394898</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1240,17 +1309,17 @@
         <v>30</v>
       </c>
       <c r="E33" s="2">
-        <v>57.100919648539303</v>
+        <v>49.334045591853297</v>
       </c>
       <c r="F33" s="2">
-        <v>33.937087400141699</v>
+        <v>30.392789143448599</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2">
-        <v>49.334045591853297</v>
+        <v>57.100919648539303</v>
       </c>
       <c r="I33" s="2">
-        <v>30.392789143448599</v>
+        <v>33.937087400141699</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1266,17 +1335,17 @@
         <v>30</v>
       </c>
       <c r="E34" s="2">
-        <v>61.084176457952701</v>
+        <v>49.7791652955842</v>
       </c>
       <c r="F34" s="2">
-        <v>32.792284920729998</v>
+        <v>28.634237382938601</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2">
-        <v>49.7791652955842</v>
+        <v>61.084176457952701</v>
       </c>
       <c r="I34" s="2">
-        <v>28.634237382938601</v>
+        <v>32.792284920729998</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1292,17 +1361,17 @@
         <v>30</v>
       </c>
       <c r="E35" s="2">
-        <v>71.948846719460605</v>
+        <v>57.165403135183197</v>
       </c>
       <c r="F35" s="2">
-        <v>30.9932098775746</v>
+        <v>30.534004764542999</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2">
-        <v>57.165403135183197</v>
+        <v>71.948846719460605</v>
       </c>
       <c r="I35" s="2">
-        <v>30.534004764542999</v>
+        <v>30.9932098775746</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1318,17 +1387,17 @@
         <v>15</v>
       </c>
       <c r="E36" s="2">
-        <v>45.853330124518799</v>
+        <v>45.226275779369203</v>
       </c>
       <c r="F36" s="2">
-        <v>9.6587441517895591</v>
+        <v>20.423447231137398</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2">
-        <v>45.226275779369203</v>
+        <v>45.853330124518799</v>
       </c>
       <c r="I36" s="2">
-        <v>20.423447231137398</v>
+        <v>9.6587441517895591</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1344,17 +1413,17 @@
         <v>15</v>
       </c>
       <c r="E37" s="2">
-        <v>52.252294125035398</v>
+        <v>53.543662231522802</v>
       </c>
       <c r="F37" s="2">
-        <v>11.328670099189599</v>
+        <v>18.529635312612601</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2">
-        <v>53.543662231522802</v>
+        <v>52.252294125035398</v>
       </c>
       <c r="I37" s="2">
-        <v>18.529635312612601</v>
+        <v>11.328670099189599</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1370,17 +1439,17 @@
         <v>15</v>
       </c>
       <c r="E38" s="2">
-        <v>54.966858285944902</v>
+        <v>58.296294546903503</v>
       </c>
       <c r="F38" s="2">
-        <v>12.001972714535601</v>
+        <v>19.721835243036502</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2">
-        <v>58.296294546903503</v>
+        <v>54.966858285944902</v>
       </c>
       <c r="I38" s="2">
-        <v>19.721835243036502</v>
+        <v>12.001972714535601</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1396,17 +1465,17 @@
         <v>20</v>
       </c>
       <c r="E39" s="2">
-        <v>48.580905535724</v>
+        <v>50.31823011609</v>
       </c>
       <c r="F39" s="2">
-        <v>15.0923449395254</v>
+        <v>25.304207047861599</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2">
-        <v>50.31823011609</v>
+        <v>48.580905535724</v>
       </c>
       <c r="I39" s="2">
-        <v>25.304207047861599</v>
+        <v>15.0923449395254</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1422,17 +1491,17 @@
         <v>20</v>
       </c>
       <c r="E40" s="2">
-        <v>58.832175052608399</v>
+        <v>58.796055845160701</v>
       </c>
       <c r="F40" s="2">
-        <v>17.147128241827701</v>
+        <v>18.135717770859198</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2">
-        <v>58.796055845160701</v>
+        <v>58.832175052608399</v>
       </c>
       <c r="I40" s="2">
-        <v>18.135717770859198</v>
+        <v>17.147128241827701</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1448,17 +1517,17 @@
         <v>20</v>
       </c>
       <c r="E41" s="2">
-        <v>63.090440744999803</v>
+        <v>60.656943202406801</v>
       </c>
       <c r="F41" s="2">
-        <v>17.870290440261702</v>
+        <v>17.8946833514612</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
-        <v>60.656943202406801</v>
+        <v>63.090440744999803</v>
       </c>
       <c r="I41" s="2">
-        <v>17.8946833514612</v>
+        <v>17.870290440261702</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -1474,17 +1543,17 @@
         <v>20</v>
       </c>
       <c r="E42" s="2">
-        <v>67.8128587214742</v>
+        <v>61.784630159555398</v>
       </c>
       <c r="F42" s="2">
-        <v>18.551880520732599</v>
+        <v>20.4963065300153</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2">
-        <v>61.784630159555398</v>
+        <v>67.8128587214742</v>
       </c>
       <c r="I42" s="2">
-        <v>20.4963065300153</v>
+        <v>18.551880520732599</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -1500,17 +1569,17 @@
         <v>25</v>
       </c>
       <c r="E43" s="2">
-        <v>55.516094288555898</v>
+        <v>45.327735584003896</v>
       </c>
       <c r="F43" s="2">
-        <v>22.076902864333501</v>
+        <v>24.6898801634755</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2">
-        <v>45.327735584003896</v>
+        <v>55.516094288555898</v>
       </c>
       <c r="I43" s="2">
-        <v>24.6898801634755</v>
+        <v>22.076902864333501</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -1526,17 +1595,17 @@
         <v>25</v>
       </c>
       <c r="E44" s="2">
-        <v>57.960021401406301</v>
+        <v>47.501102184251202</v>
       </c>
       <c r="F44" s="2">
-        <v>22.3137155181347</v>
+        <v>18.045691257410201</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2">
-        <v>47.501102184251202</v>
+        <v>57.960021401406301</v>
       </c>
       <c r="I44" s="2">
-        <v>18.045691257410201</v>
+        <v>22.3137155181347</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -1552,17 +1621,17 @@
         <v>25</v>
       </c>
       <c r="E45" s="2">
-        <v>60.507015764247598</v>
+        <v>58.401067080275901</v>
       </c>
       <c r="F45" s="2">
-        <v>22.548296688732002</v>
+        <v>25.651499890781999</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2">
-        <v>58.401067080275901</v>
+        <v>60.507015764247598</v>
       </c>
       <c r="I45" s="2">
-        <v>25.651499890781999</v>
+        <v>22.548296688732002</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -1578,17 +1647,17 @@
         <v>25</v>
       </c>
       <c r="E46" s="2">
-        <v>61.937787997769199</v>
+        <v>57.723362949504299</v>
       </c>
       <c r="F46" s="2">
-        <v>22.6713152058676</v>
+        <v>23.279254380991201</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2">
-        <v>57.723362949504299</v>
+        <v>61.937787997769199</v>
       </c>
       <c r="I46" s="2">
-        <v>23.279254380991201</v>
+        <v>22.6713152058676</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -1604,17 +1673,17 @@
         <v>25</v>
       </c>
       <c r="E47" s="2">
-        <v>66.078270921483593</v>
+        <v>66.175285812145006</v>
       </c>
       <c r="F47" s="2">
-        <v>22.985877003185202</v>
+        <v>27.942558205737601</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2">
-        <v>66.175285812145006</v>
+        <v>66.078270921483593</v>
       </c>
       <c r="I47" s="2">
-        <v>27.942558205737601</v>
+        <v>22.985877003185202</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -1630,17 +1699,17 @@
         <v>30</v>
       </c>
       <c r="E48" s="2">
-        <v>54.006723350845299</v>
+        <v>45.693799020634103</v>
       </c>
       <c r="F48" s="2">
-        <v>28.985508910484501</v>
+        <v>30.638527345851301</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2">
-        <v>45.693799020634103</v>
+        <v>54.006723350845299</v>
       </c>
       <c r="I48" s="2">
-        <v>30.638527345851301</v>
+        <v>28.985508910484501</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -1656,17 +1725,17 @@
         <v>30</v>
       </c>
       <c r="E49" s="2">
-        <v>60.498773506376899</v>
+        <v>51.6710075457705</v>
       </c>
       <c r="F49" s="2">
-        <v>28.4936987497601</v>
+        <v>24.447410535451901</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2">
-        <v>51.6710075457705</v>
+        <v>60.498773506376899</v>
       </c>
       <c r="I49" s="2">
-        <v>24.447410535451901</v>
+        <v>28.4936987497601</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -1682,17 +1751,17 @@
         <v>30</v>
       </c>
       <c r="E50" s="2">
-        <v>65.738785373512698</v>
+        <v>65.857065734641395</v>
       </c>
       <c r="F50" s="2">
-        <v>28.226792905653301</v>
+        <v>28.017295024727598</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2">
-        <v>65.857065734641395</v>
+        <v>65.738785373512698</v>
       </c>
       <c r="I50" s="2">
-        <v>28.017295024727598</v>
+        <v>28.226792905653301</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -1708,17 +1777,17 @@
         <v>40</v>
       </c>
       <c r="E51" s="2">
-        <v>58.0354773059953</v>
+        <v>58.534718867789799</v>
       </c>
       <c r="F51" s="2">
-        <v>43.500145616721902</v>
+        <v>37.111802025368</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2">
-        <v>58.534718867789799</v>
+        <v>58.0354773059953</v>
       </c>
       <c r="I51" s="2">
-        <v>37.111802025368</v>
+        <v>43.500145616721902</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -1734,17 +1803,17 @@
         <v>40</v>
       </c>
       <c r="E52" s="2">
-        <v>60.045757459942301</v>
+        <v>71.471730885394706</v>
       </c>
       <c r="F52" s="2">
-        <v>42.379230992235598</v>
+        <v>36.689601889238702</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2">
-        <v>71.471730885394706</v>
+        <v>60.045757459942301</v>
       </c>
       <c r="I52" s="2">
-        <v>36.689601889238702</v>
+        <v>42.379230992235598</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -1760,17 +1829,17 @@
         <v>40</v>
       </c>
       <c r="E53" s="2">
-        <v>64.963003881741301</v>
+        <v>84.227938868056796</v>
       </c>
       <c r="F53" s="2">
-        <v>40.549031334067301</v>
+        <v>39.9931503598634</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2">
-        <v>84.227938868056796</v>
+        <v>64.963003881741301</v>
       </c>
       <c r="I53" s="2">
-        <v>39.9931503598634</v>
+        <v>40.549031334067301</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -1786,17 +1855,17 @@
         <v>40</v>
       </c>
       <c r="E54" s="2">
-        <v>67.559179851319598</v>
+        <v>90.384610671442502</v>
       </c>
       <c r="F54" s="2">
-        <v>39.855973111033101</v>
+        <v>41.980078061125901</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2">
-        <v>90.384610671442502</v>
+        <v>67.559179851319598</v>
       </c>
       <c r="I54" s="2">
-        <v>41.980078061125901</v>
+        <v>39.855973111033101</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -1812,17 +1881,17 @@
         <v>20</v>
       </c>
       <c r="E55" s="2">
-        <v>187.16549497004601</v>
+        <v>161.12835335478499</v>
       </c>
       <c r="F55" s="2">
-        <v>31.559720315811202</v>
+        <v>30.8565328676166</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2">
-        <v>161.12835335478499</v>
+        <v>187.16549497004601</v>
       </c>
       <c r="I55" s="2">
-        <v>30.8565328676166</v>
+        <v>31.559720315811202</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -1838,17 +1907,17 @@
         <v>20</v>
       </c>
       <c r="E56" s="2">
-        <v>200.83057840354701</v>
+        <v>176.00168366793901</v>
       </c>
       <c r="F56" s="2">
-        <v>30.460208830125399</v>
+        <v>30.650015510026002</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2">
-        <v>176.00168366793901</v>
+        <v>200.83057840354701</v>
       </c>
       <c r="I56" s="2">
-        <v>30.650015510026002</v>
+        <v>30.460208830125399</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -1864,17 +1933,17 @@
         <v>20</v>
       </c>
       <c r="E57" s="2">
-        <v>200.42135549150399</v>
+        <v>160.633336346357</v>
       </c>
       <c r="F57" s="2">
-        <v>61.721536539160802</v>
+        <v>33.057343401394199</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2">
-        <v>160.633336346357</v>
+        <v>200.42135549150399</v>
       </c>
       <c r="I57" s="2">
-        <v>33.057343401394199</v>
+        <v>61.721536539160802</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -1890,17 +1959,17 @@
         <v>20</v>
       </c>
       <c r="E58" s="2">
-        <v>198.06025460455601</v>
+        <v>183.03115973044899</v>
       </c>
       <c r="F58" s="2">
-        <v>31.1129366893141</v>
+        <v>30.662155494918601</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2">
-        <v>183.03115973044899</v>
+        <v>198.06025460455601</v>
       </c>
       <c r="I58" s="2">
-        <v>30.662155494918601</v>
+        <v>31.1129366893141</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -1916,17 +1985,17 @@
         <v>20</v>
       </c>
       <c r="E59" s="2">
-        <v>204.739763949066</v>
+        <v>186.58290407346399</v>
       </c>
       <c r="F59" s="2">
-        <v>30.521245045691298</v>
+        <v>30.3323116865615</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2">
-        <v>186.58290407346399</v>
+        <v>204.739763949066</v>
       </c>
       <c r="I59" s="2">
-        <v>30.3323116865615</v>
+        <v>30.521245045691298</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -1942,17 +2011,17 @@
         <v>20</v>
       </c>
       <c r="E60" s="2">
-        <v>203.66647631674999</v>
+        <v>168.89592135240801</v>
       </c>
       <c r="F60" s="2">
-        <v>61.871627043079897</v>
+        <v>32.504432605967502</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2">
-        <v>168.89592135240801</v>
+        <v>203.66647631674999</v>
       </c>
       <c r="I60" s="2">
-        <v>32.504432605967502</v>
+        <v>61.871627043079897</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -1968,17 +2037,17 @@
         <v>20</v>
       </c>
       <c r="E61" s="2">
-        <v>202.58183672931</v>
+        <v>192.676829461864</v>
       </c>
       <c r="F61" s="2">
-        <v>30.9438979298607</v>
+        <v>30.171099388412198</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2">
-        <v>192.676829461864</v>
+        <v>202.58183672931</v>
       </c>
       <c r="I61" s="2">
-        <v>30.171099388412198</v>
+        <v>30.9438979298607</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -1994,17 +2063,17 @@
         <v>20</v>
       </c>
       <c r="E62" s="2">
-        <v>205.017242788337</v>
+        <v>188.610036237863</v>
       </c>
       <c r="F62" s="2">
-        <v>30.525389839999299</v>
+        <v>30.417871954655901</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2">
-        <v>188.610036237863</v>
+        <v>205.017242788337</v>
       </c>
       <c r="I62" s="2">
-        <v>30.417871954655901</v>
+        <v>30.525389839999299</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -2020,17 +2089,17 @@
         <v>20</v>
       </c>
       <c r="E63" s="2">
-        <v>213.32425657147499</v>
+        <v>190.18312459075099</v>
       </c>
       <c r="F63" s="2">
-        <v>62.292793987882099</v>
+        <v>31.498581905985201</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2">
-        <v>190.18312459075099</v>
+        <v>213.32425657147499</v>
       </c>
       <c r="I63" s="2">
-        <v>31.498581905985201</v>
+        <v>62.292793987882099</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -2046,17 +2115,17 @@
         <v>20</v>
       </c>
       <c r="E64" s="2">
-        <v>202.23686566483201</v>
+        <v>194.11035286275401</v>
       </c>
       <c r="F64" s="2">
-        <v>30.956477617533501</v>
+        <v>30.380581439208399</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2">
-        <v>194.11035286275401</v>
+        <v>202.23686566483201</v>
       </c>
       <c r="I64" s="2">
-        <v>30.380581439208399</v>
+        <v>30.956477617533501</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -2072,17 +2141,17 @@
         <v>20</v>
       </c>
       <c r="E65" s="2">
-        <v>210.76922898460199</v>
+        <v>193.204407238052</v>
       </c>
       <c r="F65" s="2">
-        <v>30.606509067721301</v>
+        <v>29.250485861805601</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2">
-        <v>193.204407238052</v>
+        <v>210.76922898460199</v>
       </c>
       <c r="I65" s="2">
-        <v>29.250485861805601</v>
+        <v>30.606509067721301</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -2098,17 +2167,17 @@
         <v>20</v>
       </c>
       <c r="E66" s="2">
-        <v>218.71247984934601</v>
+        <v>206.767456835785</v>
       </c>
       <c r="F66" s="2">
-        <v>62.503363731491902</v>
+        <v>34.8858381293973</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2">
-        <v>206.767456835785</v>
+        <v>218.71247984934601</v>
       </c>
       <c r="I66" s="2">
-        <v>34.8858381293973</v>
+        <v>62.503363731491902</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -2124,17 +2193,17 @@
         <v>30</v>
       </c>
       <c r="E67" s="2">
-        <v>177.77169680269401</v>
+        <v>160.39422232159299</v>
       </c>
       <c r="F67" s="2">
-        <v>32.001997517253898</v>
+        <v>34.120375883347002</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2">
-        <v>160.39422232159299</v>
+        <v>177.77169680269401</v>
       </c>
       <c r="I67" s="2">
-        <v>34.120375883347002</v>
+        <v>32.001997517253898</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -2150,17 +2219,17 @@
         <v>30</v>
       </c>
       <c r="E68" s="2">
-        <v>178.910902671982</v>
+        <v>159.02443234558001</v>
       </c>
       <c r="F68" s="2">
-        <v>29.918175304966699</v>
+        <v>40.2103343865898</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2">
-        <v>159.02443234558001</v>
+        <v>178.910902671982</v>
       </c>
       <c r="I68" s="2">
-        <v>40.2103343865898</v>
+        <v>29.918175304966699</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -2176,17 +2245,17 @@
         <v>30</v>
       </c>
       <c r="E69" s="2">
-        <v>193.01247547986</v>
+        <v>164.77392679739799</v>
       </c>
       <c r="F69" s="2">
-        <v>31.3126601652462</v>
+        <v>30.783250198832</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2">
-        <v>164.77392679739799</v>
+        <v>193.01247547986</v>
       </c>
       <c r="I69" s="2">
-        <v>30.783250198832</v>
+        <v>31.3126601652462</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -2202,17 +2271,17 @@
         <v>30</v>
       </c>
       <c r="E70" s="2">
-        <v>192.08460462000201</v>
+        <v>171.47450440276401</v>
       </c>
       <c r="F70" s="2">
-        <v>30.300584567537001</v>
+        <v>33.443881358025997</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2">
-        <v>171.47450440276401</v>
+        <v>192.08460462000201</v>
       </c>
       <c r="I70" s="2">
-        <v>33.443881358025997</v>
+        <v>30.300584567537001</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -2228,17 +2297,17 @@
         <v>30</v>
       </c>
       <c r="E71" s="2">
-        <v>198.36754143191499</v>
+        <v>160.23789234363699</v>
       </c>
       <c r="F71" s="2">
-        <v>61.6258857787479</v>
+        <v>34.815451346609798</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2">
-        <v>160.23789234363699</v>
+        <v>198.36754143191499</v>
       </c>
       <c r="I71" s="2">
-        <v>34.815451346609798</v>
+        <v>61.6258857787479</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -2254,17 +2323,17 @@
         <v>30</v>
       </c>
       <c r="E72" s="2">
-        <v>191.272189079784</v>
+        <v>178.05169572500901</v>
       </c>
       <c r="F72" s="2">
-        <v>31.384352623565601</v>
+        <v>32.473971953878802</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2">
-        <v>178.05169572500901</v>
+        <v>191.272189079784</v>
       </c>
       <c r="I72" s="2">
-        <v>32.473971953878802</v>
+        <v>31.384352623565601</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -2280,17 +2349,17 @@
         <v>30</v>
       </c>
       <c r="E73" s="2">
-        <v>201.590676160995</v>
+        <v>183.56949536412199</v>
       </c>
       <c r="F73" s="2">
-        <v>30.4724862232327</v>
+        <v>31.027737169102799</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2">
-        <v>183.56949536412199</v>
+        <v>201.590676160995</v>
       </c>
       <c r="I73" s="2">
-        <v>31.027737169102799</v>
+        <v>30.4724862232327</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -2306,17 +2375,17 @@
         <v>30</v>
       </c>
       <c r="E74" s="2">
-        <v>208.40304686687901</v>
+        <v>191.313836441414</v>
       </c>
       <c r="F74" s="2">
-        <v>62.0842700703692</v>
+        <v>35.9098000833322</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2">
-        <v>191.313836441414</v>
+        <v>208.40304686687901</v>
       </c>
       <c r="I74" s="2">
-        <v>35.9098000833322</v>
+        <v>62.0842700703692</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -2332,17 +2401,17 @@
         <v>30</v>
       </c>
       <c r="E75" s="2">
-        <v>195.25716153252901</v>
+        <v>187.9878754744</v>
       </c>
       <c r="F75" s="2">
-        <v>31.222366509094702</v>
+        <v>31.931486946365101</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2">
-        <v>187.9878754744</v>
+        <v>195.25716153252901</v>
       </c>
       <c r="I75" s="2">
-        <v>31.931486946365101</v>
+        <v>31.222366509094702</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -2358,17 +2427,17 @@
         <v>30</v>
       </c>
       <c r="E76" s="2">
-        <v>202.906166084576</v>
+        <v>189.744038868068</v>
       </c>
       <c r="F76" s="2">
-        <v>30.493252634030799</v>
+        <v>31.1285786207435</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2">
-        <v>189.744038868068</v>
+        <v>202.906166084576</v>
       </c>
       <c r="I76" s="2">
-        <v>31.1285786207435</v>
+        <v>30.493252634030799</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -2384,17 +2453,17 @@
         <v>30</v>
       </c>
       <c r="E77" s="2">
-        <v>221.180721176323</v>
+        <v>227.30323749025101</v>
       </c>
       <c r="F77" s="2">
-        <v>62.593185259217798</v>
+        <v>40.5701033474556</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2">
-        <v>227.30323749025101</v>
+        <v>221.180721176323</v>
       </c>
       <c r="I77" s="2">
-        <v>40.5701033474556</v>
+        <v>62.593185259217798</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -2410,17 +2479,17 @@
         <v>30</v>
       </c>
       <c r="E78" s="2">
-        <v>189.64456159202399</v>
+        <v>189.35266346550901</v>
       </c>
       <c r="F78" s="2">
-        <v>31.452787743798499</v>
+        <v>33.994889484553802</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2">
-        <v>189.35266346550901</v>
+        <v>189.64456159202399</v>
       </c>
       <c r="I78" s="2">
-        <v>33.994889484553802</v>
+        <v>31.452787743798499</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -2436,17 +2505,17 @@
         <v>30</v>
       </c>
       <c r="E79" s="2">
-        <v>201.01218618173201</v>
+        <v>204.72348784660099</v>
       </c>
       <c r="F79" s="2">
-        <v>30.463161405628501</v>
+        <v>35.0926337074401</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2">
-        <v>204.72348784660099</v>
+        <v>201.01218618173201</v>
       </c>
       <c r="I79" s="2">
-        <v>35.0926337074401</v>
+        <v>30.463161405628501</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -2462,17 +2531,17 @@
         <v>30</v>
       </c>
       <c r="E80" s="2">
-        <v>213.042264808901</v>
+        <v>208.549527639302</v>
       </c>
       <c r="F80" s="2">
-        <v>62.281243870036803</v>
+        <v>37.118635040324001</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2">
-        <v>208.549527639302</v>
+        <v>213.042264808901</v>
       </c>
       <c r="I80" s="2">
-        <v>37.118635040324001</v>
+        <v>62.281243870036803</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -2488,17 +2557,17 @@
         <v>40</v>
       </c>
       <c r="E81" s="2">
-        <v>183.73331318562899</v>
+        <v>160.32461335942401</v>
       </c>
       <c r="F81" s="2">
-        <v>30.095986798653598</v>
+        <v>34.429852757956297</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2">
-        <v>160.32461335942401</v>
+        <v>183.73331318562899</v>
       </c>
       <c r="I81" s="2">
-        <v>34.429852757956297</v>
+        <v>30.095986798653598</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -2514,17 +2583,17 @@
         <v>40</v>
       </c>
       <c r="E82" s="2">
-        <v>197.57492470554999</v>
+        <v>160.12906925579799</v>
       </c>
       <c r="F82" s="2">
-        <v>61.589039742682303</v>
+        <v>35.299222863857104</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2">
-        <v>160.12906925579799</v>
+        <v>197.57492470554999</v>
       </c>
       <c r="I82" s="2">
-        <v>35.299222863857104</v>
+        <v>61.589039742682303</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -2540,17 +2609,17 @@
         <v>40</v>
       </c>
       <c r="E83" s="2">
-        <v>203.068168488331</v>
+        <v>172.430673306514</v>
       </c>
       <c r="F83" s="2">
-        <v>30.495769399570399</v>
+        <v>29.6701948762217</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2">
-        <v>172.430673306514</v>
+        <v>203.068168488331</v>
       </c>
       <c r="I83" s="2">
-        <v>29.6701948762217</v>
+        <v>30.495769399570399</v>
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -2566,17 +2635,17 @@
         <v>40</v>
       </c>
       <c r="E84" s="2">
-        <v>202.551066564396</v>
+        <v>161.399669153177</v>
       </c>
       <c r="F84" s="2">
-        <v>61.820309078779196</v>
+        <v>32.441722314366402</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2">
-        <v>161.399669153177</v>
+        <v>202.551066564396</v>
       </c>
       <c r="I84" s="2">
-        <v>32.441722314366402</v>
+        <v>61.820309078779196</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -2592,17 +2661,17 @@
         <v>40</v>
       </c>
       <c r="E85" s="2">
-        <v>203.26046623196501</v>
+        <v>193.52038190644799</v>
       </c>
       <c r="F85" s="2">
-        <v>30.498745580675799</v>
+        <v>31.330076043723601</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2">
-        <v>193.52038190644799</v>
+        <v>203.26046623196501</v>
       </c>
       <c r="I85" s="2">
-        <v>31.330076043723601</v>
+        <v>30.498745580675799</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -2618,17 +2687,17 @@
         <v>40</v>
       </c>
       <c r="E86" s="2">
-        <v>211.76394278975201</v>
+        <v>200.12790823283501</v>
       </c>
       <c r="F86" s="2">
-        <v>62.228254440878302</v>
+        <v>36.6279199782429</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2">
-        <v>200.12790823283501</v>
+        <v>211.76394278975201</v>
       </c>
       <c r="I86" s="2">
-        <v>36.6279199782429</v>
+        <v>62.228254440878302</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -2644,17 +2713,17 @@
         <v>40</v>
       </c>
       <c r="E87" s="2">
-        <v>218.09542677178999</v>
+        <v>209.89013139239501</v>
       </c>
       <c r="F87" s="2">
-        <v>62.480248884616799</v>
+        <v>36.483987264307402</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2">
-        <v>209.89013139239501</v>
+        <v>218.09542677178999</v>
       </c>
       <c r="I87" s="2">
-        <v>36.483987264307402</v>
+        <v>62.480248884616799</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -2670,17 +2739,17 @@
         <v>40</v>
       </c>
       <c r="E88" s="2">
-        <v>224.17729927366599</v>
+        <v>213.019985831643</v>
       </c>
       <c r="F88" s="2">
-        <v>30.767794458568801</v>
+        <v>30.446860730803898</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2">
-        <v>213.019985831643</v>
+        <v>224.17729927366599</v>
       </c>
       <c r="I88" s="2">
-        <v>30.446860730803898</v>
+        <v>30.767794458568801</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -2696,17 +2765,17 @@
         <v>50</v>
       </c>
       <c r="E89" s="2">
-        <v>190.30301745655001</v>
+        <v>160.640049536623</v>
       </c>
       <c r="F89" s="2">
-        <v>30.262669889190398</v>
+        <v>33.027454148298702</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2">
-        <v>160.640049536623</v>
+        <v>190.30301745655001</v>
       </c>
       <c r="I89" s="2">
-        <v>33.027454148298702</v>
+        <v>30.262669889190398</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -2722,17 +2791,17 @@
         <v>50</v>
       </c>
       <c r="E90" s="2">
-        <v>198.27731771301501</v>
+        <v>160.210082264889</v>
       </c>
       <c r="F90" s="2">
-        <v>61.621687303194797</v>
+        <v>34.939073967535101</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2">
-        <v>160.210082264889</v>
+        <v>198.27731771301501</v>
       </c>
       <c r="I90" s="2">
-        <v>34.939073967535101</v>
+        <v>61.621687303194797</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -2748,17 +2817,17 @@
         <v>50</v>
       </c>
       <c r="E91" s="2">
-        <v>199.69464321807001</v>
+        <v>170.89414252272101</v>
       </c>
       <c r="F91" s="2">
-        <v>69.788992386246093</v>
+        <v>48.079240444402998</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2">
-        <v>170.89414252272101</v>
+        <v>199.69464321807001</v>
       </c>
       <c r="I91" s="2">
-        <v>48.079240444402998</v>
+        <v>69.788992386246093</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -2774,17 +2843,17 @@
         <v>50</v>
       </c>
       <c r="E92" s="2">
-        <v>200.153835890815</v>
+        <v>175.38289744931501</v>
       </c>
       <c r="F92" s="2">
-        <v>30.4490974948835</v>
+        <v>30.816059270866699</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2">
-        <v>175.38289744931501</v>
+        <v>200.153835890815</v>
       </c>
       <c r="I92" s="2">
-        <v>30.816059270866699</v>
+        <v>30.4490974948835</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -2800,17 +2869,17 @@
         <v>50</v>
       </c>
       <c r="E93" s="2">
-        <v>204.32113857287899</v>
+        <v>179.91740019477999</v>
       </c>
       <c r="F93" s="2">
-        <v>61.901566336376099</v>
+        <v>35.231390922641303</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2">
-        <v>179.91740019477999</v>
+        <v>204.32113857287899</v>
       </c>
       <c r="I93" s="2">
-        <v>35.231390922641303</v>
+        <v>61.901566336376099</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -2826,17 +2895,17 @@
         <v>50</v>
       </c>
       <c r="E94" s="2">
-        <v>205.57428791653399</v>
+        <v>176.83250378731299</v>
       </c>
       <c r="F94" s="2">
-        <v>69.792170468189198</v>
+        <v>46.208139096183103</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2">
-        <v>176.83250378731299</v>
+        <v>205.57428791653399</v>
       </c>
       <c r="I94" s="2">
-        <v>46.208139096183103</v>
+        <v>69.792170468189198</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -2852,17 +2921,17 @@
         <v>50</v>
       </c>
       <c r="E95" s="2">
-        <v>210.25297483056801</v>
+        <v>167.98408822394299</v>
       </c>
       <c r="F95" s="2">
-        <v>69.830768253211701</v>
+        <v>34.364473943308298</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2">
-        <v>167.98408822394299</v>
+        <v>210.25297483056801</v>
       </c>
       <c r="I95" s="2">
-        <v>34.364473943308298</v>
+        <v>69.830768253211701</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -2878,17 +2947,17 @@
         <v>50</v>
       </c>
       <c r="E96" s="2">
-        <v>209.956004749052</v>
+        <v>171.56333151745901</v>
       </c>
       <c r="F96" s="2">
-        <v>69.831018728718703</v>
+        <v>47.437747846938798</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2">
-        <v>171.56333151745901</v>
+        <v>209.956004749052</v>
       </c>
       <c r="I96" s="2">
-        <v>47.437747846938798</v>
+        <v>69.831018728718703</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -2904,17 +2973,17 @@
         <v>50</v>
       </c>
       <c r="E97" s="2">
-        <v>204.72440150193901</v>
+        <v>192.27815451195701</v>
       </c>
       <c r="F97" s="2">
-        <v>30.521014890882899</v>
+        <v>30.800481917161498</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2">
-        <v>192.27815451195701</v>
+        <v>204.72440150193901</v>
       </c>
       <c r="I97" s="2">
-        <v>30.800481917161498</v>
+        <v>30.521014890882899</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -2930,17 +2999,17 @@
         <v>50</v>
       </c>
       <c r="E98" s="2">
-        <v>215.06416329834599</v>
+        <v>199.58357739716001</v>
       </c>
       <c r="F98" s="2">
-        <v>62.3629167982388</v>
+        <v>34.1595421431334</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2">
-        <v>199.58357739716001</v>
+        <v>215.06416329834599</v>
       </c>
       <c r="I98" s="2">
-        <v>34.1595421431334</v>
+        <v>62.3629167982388</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -2956,17 +3025,17 @@
         <v>50</v>
       </c>
       <c r="E99" s="2">
-        <v>218.81919949874299</v>
+        <v>201.31617880930699</v>
       </c>
       <c r="F99" s="2">
-        <v>69.785322271458099</v>
+        <v>38.871277299881903</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2">
-        <v>201.31617880930699</v>
+        <v>218.81919949874299</v>
       </c>
       <c r="I99" s="2">
-        <v>38.871277299881903</v>
+        <v>69.785322271458099</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -2982,17 +3051,17 @@
         <v>50</v>
       </c>
       <c r="E100" s="2">
-        <v>222.450433858205</v>
+        <v>202.00458595657</v>
       </c>
       <c r="F100" s="2">
-        <v>69.830576046160601</v>
+        <v>41.932821139071102</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2">
-        <v>202.00458595657</v>
+        <v>222.450433858205</v>
       </c>
       <c r="I100" s="2">
-        <v>41.932821139071102</v>
+        <v>69.830576046160601</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -3008,17 +3077,17 @@
         <v>50</v>
       </c>
       <c r="E101" s="2">
-        <v>222.83251563832201</v>
+        <v>198.339184071407</v>
       </c>
       <c r="F101" s="2">
-        <v>69.831016143202007</v>
+        <v>44.846600001967197</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2">
-        <v>198.339184071407</v>
+        <v>222.83251563832201</v>
       </c>
       <c r="I101" s="2">
-        <v>44.846600001967197</v>
+        <v>69.831016143202007</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
@@ -3034,17 +3103,17 @@
         <v>50</v>
       </c>
       <c r="E102" s="2">
-        <v>209.080526772887</v>
+        <v>195.682771093263</v>
       </c>
       <c r="F102" s="2">
-        <v>30.583584747220598</v>
+        <v>29.885151587528799</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2">
-        <v>195.682771093263</v>
+        <v>209.080526772887</v>
       </c>
       <c r="I102" s="2">
-        <v>29.885151587528799</v>
+        <v>30.583584747220598</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -3060,17 +3129,17 @@
         <v>50</v>
       </c>
       <c r="E103" s="2">
-        <v>215.212928223424</v>
+        <v>202.72783946756601</v>
       </c>
       <c r="F103" s="2">
-        <v>62.368819851368102</v>
+        <v>35.325387552834499</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2">
-        <v>202.72783946756601</v>
+        <v>215.212928223424</v>
       </c>
       <c r="I103" s="2">
-        <v>35.325387552834499</v>
+        <v>62.368819851368102</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -3086,17 +3155,17 @@
         <v>50</v>
       </c>
       <c r="E104" s="2">
-        <v>220.861208964139</v>
+        <v>205.452820324897</v>
       </c>
       <c r="F104" s="2">
-        <v>69.783917159586395</v>
+        <v>39.852147991522003</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2">
-        <v>205.452820324897</v>
+        <v>220.861208964139</v>
       </c>
       <c r="I104" s="2">
-        <v>39.852147991522003</v>
+        <v>69.783917159586395</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -3112,17 +3181,17 @@
         <v>50</v>
       </c>
       <c r="E105" s="2">
-        <v>225.17895875871201</v>
+        <v>208.98819453549899</v>
       </c>
       <c r="F105" s="2">
-        <v>69.830531439622703</v>
+        <v>43.678355314818198</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2">
-        <v>208.98819453549899</v>
+        <v>225.17895875871201</v>
       </c>
       <c r="I105" s="2">
-        <v>43.678355314818198</v>
+        <v>69.830531439622703</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -3138,17 +3207,17 @@
         <v>50</v>
       </c>
       <c r="E106" s="2">
-        <v>229.28679247340199</v>
+        <v>213.923023603877</v>
       </c>
       <c r="F106" s="2">
-        <v>69.831014592978306</v>
+        <v>50.322726405605898</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2">
-        <v>213.923023603877</v>
+        <v>229.28679247340199</v>
       </c>
       <c r="I106" s="2">
-        <v>50.322726405605898</v>
+        <v>69.831014592978306</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -3164,17 +3233,17 @@
         <v>50</v>
       </c>
       <c r="E107" s="2">
-        <v>220.94617373775699</v>
+        <v>233.703193409595</v>
       </c>
       <c r="F107" s="2">
-        <v>62.584831943432299</v>
+        <v>41.405168572438903</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2">
-        <v>233.703193409595</v>
+        <v>220.94617373775699</v>
       </c>
       <c r="I107" s="2">
-        <v>41.405168572438903</v>
+        <v>62.584831943432299</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -3190,17 +3259,17 @@
         <v>50</v>
       </c>
       <c r="E108" s="2">
-        <v>230.35663943272101</v>
+        <v>229.54814746151101</v>
       </c>
       <c r="F108" s="2">
-        <v>69.777075875066799</v>
+        <v>45.477927082264102</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2">
-        <v>229.54814746151101</v>
+        <v>230.35663943272101</v>
       </c>
       <c r="I108" s="2">
-        <v>45.477927082264102</v>
+        <v>69.777075875066799</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -3216,17 +3285,17 @@
         <v>50</v>
       </c>
       <c r="E109" s="2">
-        <v>232.00092289131101</v>
+        <v>216.22235708552699</v>
       </c>
       <c r="F109" s="2">
-        <v>69.830417006339104</v>
+        <v>46.4693970756475</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2">
-        <v>216.22235708552699</v>
+        <v>232.00092289131101</v>
       </c>
       <c r="I109" s="2">
-        <v>46.4693970756475</v>
+        <v>69.830417006339104</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -3242,17 +3311,17 @@
         <v>15</v>
       </c>
       <c r="E110" s="2">
-        <v>37.452295056078597</v>
+        <v>40.080222345207901</v>
       </c>
       <c r="F110" s="2">
-        <v>4.0487869808544499</v>
+        <v>17.77489255135</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2">
-        <v>40.080222345207901</v>
+        <v>37.452295056078597</v>
       </c>
       <c r="I110" s="2">
-        <v>17.77489255135</v>
+        <v>4.0487869808544499</v>
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
@@ -3268,17 +3337,17 @@
         <v>15</v>
       </c>
       <c r="E111" s="2">
-        <v>47.6994907979388</v>
+        <v>51.5678572307297</v>
       </c>
       <c r="F111" s="2">
-        <v>8.44098323636012</v>
+        <v>14.789752946907599</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2">
-        <v>51.5678572307297</v>
+        <v>47.6994907979388</v>
       </c>
       <c r="I111" s="2">
-        <v>14.789752946907599</v>
+        <v>8.44098323636012</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
@@ -3294,17 +3363,17 @@
         <v>15</v>
       </c>
       <c r="E112" s="2">
-        <v>44.287769952556097</v>
+        <v>53.410675498236003</v>
       </c>
       <c r="F112" s="2">
-        <v>5.8376553799752404</v>
+        <v>19.924442674592399</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2">
-        <v>53.410675498236003</v>
+        <v>44.287769952556097</v>
       </c>
       <c r="I112" s="2">
-        <v>19.924442674592399</v>
+        <v>5.8376553799752404</v>
       </c>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -3320,17 +3389,17 @@
         <v>20</v>
       </c>
       <c r="E113" s="2">
-        <v>44.4937041478697</v>
+        <v>50.977379075227702</v>
       </c>
       <c r="F113" s="2">
-        <v>5.9102292596578199</v>
+        <v>18.6974383846687</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2">
-        <v>50.977379075227702</v>
+        <v>44.4937041478697</v>
       </c>
       <c r="I113" s="2">
-        <v>18.6974383846687</v>
+        <v>5.9102292596578199</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -3346,17 +3415,17 @@
         <v>27</v>
       </c>
       <c r="E114" s="2">
-        <v>37.838666050927699</v>
+        <v>41.295670965981998</v>
       </c>
       <c r="F114" s="2">
-        <v>3.6455531608134599</v>
+        <v>25.326062303448801</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2">
-        <v>41.295670965981998</v>
+        <v>37.838666050927699</v>
       </c>
       <c r="I114" s="2">
-        <v>25.326062303448801</v>
+        <v>3.6455531608134599</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
@@ -3372,17 +3441,17 @@
         <v>15</v>
       </c>
       <c r="E115" s="2">
-        <v>44.883107765344903</v>
+        <v>51.230891029989898</v>
       </c>
       <c r="F115" s="2">
-        <v>6.6544514060020097</v>
+        <v>20.276190628290099</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2">
-        <v>51.230891029989898</v>
+        <v>44.883107765344903</v>
       </c>
       <c r="I115" s="2">
-        <v>20.276190628290099</v>
+        <v>6.6544514060020097</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -3398,17 +3467,17 @@
         <v>25</v>
       </c>
       <c r="E116" s="2">
-        <v>42.0130968992598</v>
+        <v>46.552748064418097</v>
       </c>
       <c r="F116" s="2">
-        <v>5.84725557161486</v>
+        <v>24.484764866745699</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2">
-        <v>46.552748064418097</v>
+        <v>42.0130968992598</v>
       </c>
       <c r="I116" s="2">
-        <v>24.484764866745699</v>
+        <v>5.84725557161486</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
@@ -3424,17 +3493,17 @@
         <v>15</v>
       </c>
       <c r="E117" s="2">
-        <v>48.2230579418829</v>
+        <v>63.250091355002098</v>
       </c>
       <c r="F117" s="2">
-        <v>8.6449165523701907</v>
+        <v>19.413002407739299</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2">
-        <v>63.250091355002098</v>
+        <v>48.2230579418829</v>
       </c>
       <c r="I117" s="2">
-        <v>19.413002407739299</v>
+        <v>8.6449165523701907</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
@@ -3450,17 +3519,17 @@
         <v>15</v>
       </c>
       <c r="E118" s="2">
-        <v>47.199479718925403</v>
+        <v>54.1819121776957</v>
       </c>
       <c r="F118" s="2">
-        <v>7.3362369856267202</v>
+        <v>19.4080526401636</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2">
-        <v>54.1819121776957</v>
+        <v>47.199479718925403</v>
       </c>
       <c r="I118" s="2">
-        <v>19.4080526401636</v>
+        <v>7.3362369856267202</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -3476,17 +3545,17 @@
         <v>15</v>
       </c>
       <c r="E119" s="2">
-        <v>46.810468455310897</v>
+        <v>55.116512150875302</v>
       </c>
       <c r="F119" s="2">
-        <v>15.1041847940346</v>
+        <v>26.9506389129605</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2">
-        <v>55.116512150875302</v>
+        <v>46.810468455310897</v>
       </c>
       <c r="I119" s="2">
-        <v>26.9506389129605</v>
+        <v>15.1041847940346</v>
       </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
@@ -3502,17 +3571,17 @@
         <v>25</v>
       </c>
       <c r="E120" s="2">
-        <v>43.968698611715801</v>
+        <v>58.895665518183897</v>
       </c>
       <c r="F120" s="2">
-        <v>6.9247204070152097</v>
+        <v>22.6403719908248</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2">
-        <v>58.895665518183897</v>
+        <v>43.968698611715801</v>
       </c>
       <c r="I120" s="2">
-        <v>22.6403719908248</v>
+        <v>6.9247204070152097</v>
       </c>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -3528,17 +3597,17 @@
         <v>25</v>
       </c>
       <c r="E121" s="2">
-        <v>45.8879283361603</v>
+        <v>54.385987018562901</v>
       </c>
       <c r="F121" s="2">
-        <v>6.9498965512130502</v>
+        <v>21.781795789003301</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2">
-        <v>54.385987018562901</v>
+        <v>45.8879283361603</v>
       </c>
       <c r="I121" s="2">
-        <v>21.781795789003301</v>
+        <v>6.9498965512130502</v>
       </c>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
@@ -3554,17 +3623,17 @@
         <v>25</v>
       </c>
       <c r="E122" s="2">
-        <v>47.7117756714579</v>
+        <v>58.767088026335003</v>
       </c>
       <c r="F122" s="2">
-        <v>15.2292223905946</v>
+        <v>28.1738767209219</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2">
-        <v>58.767088026335003</v>
+        <v>47.7117756714579</v>
       </c>
       <c r="I122" s="2">
-        <v>28.1738767209219</v>
+        <v>15.2292223905946</v>
       </c>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
@@ -3580,17 +3649,17 @@
         <v>35</v>
       </c>
       <c r="E123" s="2">
-        <v>44.883107765344903</v>
+        <v>51.635560733955899</v>
       </c>
       <c r="F123" s="2">
-        <v>6.6544514060020097</v>
+        <v>21.4399007844093</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2">
-        <v>51.635560733955899</v>
+        <v>44.883107765344903</v>
       </c>
       <c r="I123" s="2">
-        <v>21.4399007844093</v>
+        <v>6.6544514060020097</v>
       </c>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
@@ -3606,17 +3675,17 @@
         <v>35</v>
       </c>
       <c r="E124" s="2">
-        <v>46.531589421094402</v>
+        <v>53.049135157296703</v>
       </c>
       <c r="F124" s="2">
-        <v>15.071402997455101</v>
+        <v>26.270049365254302</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2">
-        <v>53.049135157296703</v>
+        <v>46.531589421094402</v>
       </c>
       <c r="I124" s="2">
-        <v>26.270049365254302</v>
+        <v>15.071402997455101</v>
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
@@ -3632,17 +3701,17 @@
         <v>15</v>
       </c>
       <c r="E125" s="2">
-        <v>54.796969147166202</v>
+        <v>61.996581933198897</v>
       </c>
       <c r="F125" s="2">
-        <v>9.4454211484124908</v>
+        <v>18.3611919383669</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2">
-        <v>61.996581933198897</v>
+        <v>54.796969147166202</v>
       </c>
       <c r="I125" s="2">
-        <v>18.3611919383669</v>
+        <v>9.4454211484124908</v>
       </c>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
@@ -3658,17 +3727,17 @@
         <v>25</v>
       </c>
       <c r="E126" s="2">
-        <v>54.345112966140697</v>
+        <v>66.743034020617898</v>
       </c>
       <c r="F126" s="2">
-        <v>9.3289608039897303</v>
+        <v>22.999410660998699</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2">
-        <v>66.743034020617898</v>
+        <v>54.345112966140697</v>
       </c>
       <c r="I126" s="2">
-        <v>22.999410660998699</v>
+        <v>9.3289608039897303</v>
       </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
@@ -3684,17 +3753,17 @@
         <v>35</v>
       </c>
       <c r="E127" s="2">
-        <v>50.757575568277403</v>
+        <v>73.286705951984402</v>
       </c>
       <c r="F127" s="2">
-        <v>8.3606215327385094</v>
+        <v>29.694217048545099</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2">
-        <v>73.286705951984402</v>
+        <v>50.757575568277403</v>
       </c>
       <c r="I127" s="2">
-        <v>29.694217048545099</v>
+        <v>8.3606215327385094</v>
       </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
@@ -3710,17 +3779,17 @@
         <v>25</v>
       </c>
       <c r="E128" s="2">
-        <v>50.460339463315897</v>
+        <v>56.516581278967202</v>
       </c>
       <c r="F128" s="2">
-        <v>9.4913553464759097</v>
+        <v>16.363726626678901</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2">
-        <v>56.516581278967202</v>
+        <v>50.460339463315897</v>
       </c>
       <c r="I128" s="2">
-        <v>16.363726626678901</v>
+        <v>9.4913553464759097</v>
       </c>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
@@ -3736,17 +3805,17 @@
         <v>25</v>
       </c>
       <c r="E129" s="2">
-        <v>54.702667664620101</v>
+        <v>51.611228841204898</v>
       </c>
       <c r="F129" s="2">
-        <v>16.5297872951861</v>
+        <v>19.699741861074401</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2">
-        <v>51.611228841204898</v>
+        <v>54.702667664620101</v>
       </c>
       <c r="I129" s="2">
-        <v>19.699741861074401</v>
+        <v>16.5297872951861</v>
       </c>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
@@ -3762,17 +3831,17 @@
         <v>35</v>
       </c>
       <c r="E130" s="2">
-        <v>51.489966944558503</v>
+        <v>69.523098348817101</v>
       </c>
       <c r="F130" s="2">
-        <v>15.907829147355599</v>
+        <v>30.115457409703399</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2">
-        <v>69.523098348817101</v>
+        <v>51.489966944558503</v>
       </c>
       <c r="I130" s="2">
-        <v>30.115457409703399</v>
+        <v>15.907829147355599</v>
       </c>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
@@ -3788,17 +3857,17 @@
         <v>35</v>
       </c>
       <c r="E131" s="2">
-        <v>50.387489193351897</v>
+        <v>57.986110204286298</v>
       </c>
       <c r="F131" s="2">
-        <v>22.149839077996599</v>
+        <v>32.303969773999398</v>
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2">
-        <v>57.986110204286298</v>
+        <v>50.387489193351897</v>
       </c>
       <c r="I131" s="2">
-        <v>32.303969773999398</v>
+        <v>22.149839077996599</v>
       </c>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
@@ -3814,17 +3883,17 @@
         <v>15</v>
       </c>
       <c r="E132" s="2">
-        <v>54.979179844725898</v>
+        <v>64.147254780192597</v>
       </c>
       <c r="F132" s="2">
-        <v>16.5824612860924</v>
+        <v>22.5926329383711</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2">
-        <v>64.147254780192597</v>
+        <v>54.979179844725898</v>
       </c>
       <c r="I132" s="2">
-        <v>22.5926329383711</v>
+        <v>16.5824612860924</v>
       </c>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
@@ -3840,17 +3909,17 @@
         <v>15</v>
       </c>
       <c r="E133" s="2">
-        <v>61.935513227595997</v>
+        <v>73.704657338169994</v>
       </c>
       <c r="F133" s="2">
-        <v>11.1138834002364</v>
+        <v>21.377624555748501</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2">
-        <v>73.704657338169994</v>
+        <v>61.935513227595997</v>
       </c>
       <c r="I133" s="2">
-        <v>21.377624555748501</v>
+        <v>11.1138834002364</v>
       </c>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
@@ -3866,17 +3935,17 @@
         <v>25</v>
       </c>
       <c r="E134" s="2">
-        <v>60.162093800725401</v>
+        <v>74.089360262061206</v>
       </c>
       <c r="F134" s="2">
-        <v>10.729259450132901</v>
+        <v>21.702485371974898</v>
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2">
-        <v>74.089360262061206</v>
+        <v>60.162093800725401</v>
       </c>
       <c r="I134" s="2">
-        <v>21.702485371974898</v>
+        <v>10.729259450132901</v>
       </c>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
@@ -3892,17 +3961,17 @@
         <v>35</v>
       </c>
       <c r="E135" s="2">
-        <v>56.950232410104903</v>
+        <v>69.069070727237303</v>
       </c>
       <c r="F135" s="2">
-        <v>9.9826581589311694</v>
+        <v>20.379441615268199</v>
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2">
-        <v>69.069070727237303</v>
+        <v>56.950232410104903</v>
       </c>
       <c r="I135" s="2">
-        <v>20.379441615268199</v>
+        <v>9.9826581589311694</v>
       </c>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
@@ -3918,17 +3987,17 @@
         <v>25</v>
       </c>
       <c r="E136" s="2">
-        <v>57.048571919091003</v>
+        <v>65.871842317059901</v>
       </c>
       <c r="F136" s="2">
-        <v>16.967725544149399</v>
+        <v>22.7191769492348</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2">
-        <v>65.871842317059901</v>
+        <v>57.048571919091003</v>
       </c>
       <c r="I136" s="2">
-        <v>22.7191769492348</v>
+        <v>16.967725544149399</v>
       </c>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
@@ -3944,17 +4013,17 @@
         <v>25</v>
       </c>
       <c r="E137" s="2">
-        <v>56.167553127510502</v>
+        <v>67.4672793536906</v>
       </c>
       <c r="F137" s="2">
-        <v>23.7676677028646</v>
+        <v>27.0827056997875</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2">
-        <v>67.4672793536906</v>
+        <v>56.167553127510502</v>
       </c>
       <c r="I137" s="2">
-        <v>27.0827056997875</v>
+        <v>23.7676677028646</v>
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
@@ -3970,17 +4039,17 @@
         <v>35</v>
       </c>
       <c r="E138" s="2">
-        <v>55.260282026138199</v>
+        <v>72.589461892200006</v>
       </c>
       <c r="F138" s="2">
-        <v>16.635755026163</v>
+        <v>27.0313725337482</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2">
-        <v>72.589461892200006</v>
+        <v>55.260282026138199</v>
       </c>
       <c r="I138" s="2">
-        <v>27.0313725337482</v>
+        <v>16.635755026163</v>
       </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
@@ -3996,17 +4065,17 @@
         <v>20</v>
       </c>
       <c r="E139" s="2">
-        <v>42.100879824720302</v>
+        <v>47.665884407076597</v>
       </c>
       <c r="F139" s="2">
-        <v>5.8702239383221304</v>
+        <v>24.874256836347701</v>
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2">
-        <v>47.665884407076597</v>
+        <v>42.100879824720302</v>
       </c>
       <c r="I139" s="2">
-        <v>24.874256836347701</v>
+        <v>5.8702239383221304</v>
       </c>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
@@ -4022,17 +4091,17 @@
         <v>30</v>
       </c>
       <c r="E140" s="2">
-        <v>49.461664774105898</v>
+        <v>58.470022775511303</v>
       </c>
       <c r="F140" s="2">
-        <v>15.5247864582189</v>
+        <v>26.486846855767901</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2">
-        <v>58.470022775511303</v>
+        <v>49.461664774105898</v>
       </c>
       <c r="I140" s="2">
-        <v>26.486846855767901</v>
+        <v>15.5247864582189</v>
       </c>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
@@ -4048,17 +4117,17 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>42.516281424323097</v>
+        <v>47.488829473916802</v>
       </c>
       <c r="F141" s="2">
-        <v>6.4040336560643203</v>
+        <v>24.7609222993296</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2">
-        <v>47.488829473916802</v>
+        <v>42.516281424323097</v>
       </c>
       <c r="I141" s="2">
-        <v>24.7609222993296</v>
+        <v>6.4040336560643203</v>
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
@@ -4074,17 +4143,17 @@
         <v>28</v>
       </c>
       <c r="E142" s="2">
-        <v>48.188122188556001</v>
+        <v>63.780166040963799</v>
       </c>
       <c r="F142" s="2">
-        <v>7.9804392310013998</v>
+        <v>26.038894054817501</v>
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2">
-        <v>63.780166040963799</v>
+        <v>48.188122188556001</v>
       </c>
       <c r="I142" s="2">
-        <v>26.038894054817501</v>
+        <v>7.9804392310013998</v>
       </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
@@ -4100,17 +4169,17 @@
         <v>28</v>
       </c>
       <c r="E143" s="2">
-        <v>52.510677394922801</v>
+        <v>68.760866752391493</v>
       </c>
       <c r="F143" s="2">
-        <v>9.1717990329957502</v>
+        <v>24.477930693537601</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2">
-        <v>68.760866752391493</v>
+        <v>52.510677394922801</v>
       </c>
       <c r="I143" s="2">
-        <v>24.477930693537601</v>
+        <v>9.1717990329957502</v>
       </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
@@ -4126,17 +4195,17 @@
         <v>34</v>
       </c>
       <c r="E144" s="2">
-        <v>54.322502072201999</v>
+        <v>69.561983722891796</v>
       </c>
       <c r="F144" s="2">
-        <v>13.5094369435777</v>
+        <v>24.532466650361201</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2">
-        <v>69.561983722891796</v>
+        <v>54.322502072201999</v>
       </c>
       <c r="I144" s="2">
-        <v>24.532466650361201</v>
+        <v>13.5094369435777</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
@@ -4152,17 +4221,17 @@
         <v>15</v>
       </c>
       <c r="E145" s="2">
-        <v>110.819331454113</v>
+        <v>88.736094259883004</v>
       </c>
       <c r="F145" s="2">
-        <v>26.511450425195299</v>
+        <v>21.452342353168898</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2">
-        <v>88.736094259883004</v>
+        <v>110.819331454113</v>
       </c>
       <c r="I145" s="2">
-        <v>21.452342353168898</v>
+        <v>26.511450425195299</v>
       </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
@@ -4178,17 +4247,17 @@
         <v>15</v>
       </c>
       <c r="E146" s="2">
-        <v>120.466373040807</v>
+        <v>90.022845700003998</v>
       </c>
       <c r="F146" s="2">
-        <v>26.160850240351301</v>
+        <v>15.731580719802199</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2">
-        <v>90.022845700003998</v>
+        <v>120.466373040807</v>
       </c>
       <c r="I146" s="2">
-        <v>15.731580719802199</v>
+        <v>26.160850240351301</v>
       </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
@@ -4204,17 +4273,17 @@
         <v>15</v>
       </c>
       <c r="E147" s="2">
-        <v>116.93801568797799</v>
+        <v>89.373804332634606</v>
       </c>
       <c r="F147" s="2">
-        <v>31.523690082899101</v>
+        <v>18.617168837386998</v>
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="2">
-        <v>89.373804332634606</v>
+        <v>116.93801568797799</v>
       </c>
       <c r="I147" s="2">
-        <v>18.617168837386998</v>
+        <v>31.523690082899101</v>
       </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
@@ -4230,17 +4299,17 @@
         <v>15</v>
       </c>
       <c r="E148" s="2">
-        <v>115.69933675066601</v>
+        <v>88.665455195728995</v>
       </c>
       <c r="F148" s="2">
-        <v>32.878739656170801</v>
+        <v>21.766406070524301</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2">
-        <v>88.665455195728995</v>
+        <v>115.69933675066601</v>
       </c>
       <c r="I148" s="2">
-        <v>21.766406070524301</v>
+        <v>32.878739656170801</v>
       </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
@@ -4256,17 +4325,17 @@
         <v>25</v>
       </c>
       <c r="E149" s="2">
-        <v>110.39894536952499</v>
+        <v>88.121393176907603</v>
       </c>
       <c r="F149" s="2">
-        <v>31.463513315106201</v>
+        <v>24.185269420824401</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2">
-        <v>88.121393176907603</v>
+        <v>110.39894536952499</v>
       </c>
       <c r="I149" s="2">
-        <v>24.185269420824401</v>
+        <v>31.463513315106201</v>
       </c>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
@@ -4282,17 +4351,17 @@
         <v>35</v>
       </c>
       <c r="E150" s="2">
-        <v>109.294458838878</v>
+        <v>87.838770304803106</v>
       </c>
       <c r="F150" s="2">
-        <v>31.4519889089235</v>
+        <v>25.441784090651598</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2">
-        <v>87.838770304803106</v>
+        <v>109.294458838878</v>
       </c>
       <c r="I150" s="2">
-        <v>25.441784090651598</v>
+        <v>31.4519889089235</v>
       </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
@@ -4308,17 +4377,17 @@
         <v>15</v>
       </c>
       <c r="E151" s="2">
-        <v>131.53249864932201</v>
+        <v>95.433408979743604</v>
       </c>
       <c r="F151" s="2">
-        <v>25.755646039548299</v>
+        <v>14.217648813384701</v>
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="2">
-        <v>95.433408979743604</v>
+        <v>131.53249864932201</v>
       </c>
       <c r="I151" s="2">
-        <v>14.217648813384701</v>
+        <v>25.755646039548299</v>
       </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
@@ -4334,17 +4403,17 @@
         <v>7.64</v>
       </c>
       <c r="E152" s="2">
-        <v>13.4737347360933</v>
+        <v>15.138475535094701</v>
       </c>
       <c r="F152" s="2">
-        <v>12.3649989248268</v>
+        <v>8.3986052726089895</v>
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2">
-        <v>15.138475535094701</v>
+        <v>13.4737347360933</v>
       </c>
       <c r="I152" s="2">
-        <v>8.3986052726089895</v>
+        <v>12.3649989248268</v>
       </c>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
@@ -4360,17 +4429,17 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="E153" s="2">
-        <v>14.4814633609494</v>
+        <v>12.7903436227308</v>
       </c>
       <c r="F153" s="2">
-        <v>8.7414623844486208</v>
+        <v>9.2839625095916194</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2">
-        <v>12.7903436227308</v>
+        <v>14.4814633609494</v>
       </c>
       <c r="I153" s="2">
-        <v>9.2839625095916194</v>
+        <v>8.7414623844486208</v>
       </c>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
@@ -4386,17 +4455,17 @@
         <v>8.56</v>
       </c>
       <c r="E154" s="2">
-        <v>13.9413343255583</v>
+        <v>13.053727673721299</v>
       </c>
       <c r="F154" s="2">
-        <v>9.5768865609976004</v>
+        <v>8.9909759324789</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2">
-        <v>13.053727673721299</v>
+        <v>13.9413343255583</v>
       </c>
       <c r="I154" s="2">
-        <v>8.9909759324789</v>
+        <v>9.5768865609976004</v>
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
@@ -4412,17 +4481,17 @@
         <v>11.98</v>
       </c>
       <c r="E155" s="2">
-        <v>19.366162772174</v>
+        <v>18.4397753497094</v>
       </c>
       <c r="F155" s="2">
-        <v>5.3412897722178299</v>
+        <v>14.7505206459108</v>
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2">
-        <v>18.4397753497094</v>
+        <v>19.366162772174</v>
       </c>
       <c r="I155" s="2">
-        <v>14.7505206459108</v>
+        <v>5.3412897722178299</v>
       </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
@@ -4438,17 +4507,17 @@
         <v>8.98</v>
       </c>
       <c r="E156" s="2">
-        <v>13.722578826360399</v>
+        <v>12.120710183944</v>
       </c>
       <c r="F156" s="2">
-        <v>9.1825623654378301</v>
+        <v>8.7661408838494097</v>
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2">
-        <v>12.120710183944</v>
+        <v>13.722578826360399</v>
       </c>
       <c r="I156" s="2">
-        <v>8.7661408838494097</v>
+        <v>9.1825623654378301</v>
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
@@ -4464,17 +4533,17 @@
         <v>16.260000000000002</v>
       </c>
       <c r="E157" s="2">
-        <v>21.5215637336951</v>
+        <v>19.944631952047299</v>
       </c>
       <c r="F157" s="2">
-        <v>9.07846024256623</v>
+        <v>11.703278506323599</v>
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="2">
-        <v>19.944631952047299</v>
+        <v>21.5215637336951</v>
       </c>
       <c r="I157" s="2">
-        <v>11.703278506323599</v>
+        <v>9.07846024256623</v>
       </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
@@ -4490,17 +4559,17 @@
         <v>8.98</v>
       </c>
       <c r="E158" s="2">
-        <v>14.309001474670399</v>
+        <v>12.7018284881305</v>
       </c>
       <c r="F158" s="2">
-        <v>9.6057911742114204</v>
+        <v>8.9032904053893294</v>
       </c>
       <c r="G158" s="2"/>
       <c r="H158" s="2">
-        <v>12.7018284881305</v>
+        <v>14.309001474670399</v>
       </c>
       <c r="I158" s="2">
-        <v>8.9032904053893294</v>
+        <v>9.6057911742114204</v>
       </c>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
@@ -4516,17 +4585,17 @@
         <v>8.98</v>
       </c>
       <c r="E159" s="2">
-        <v>14.3370925795753</v>
+        <v>12.7028012266506</v>
       </c>
       <c r="F159" s="2">
-        <v>9.4931011974674409</v>
+        <v>8.9396282073389202</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2">
-        <v>12.7028012266506</v>
+        <v>14.3370925795753</v>
       </c>
       <c r="I159" s="2">
-        <v>8.9396282073389202</v>
+        <v>9.4931011974674409</v>
       </c>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
@@ -4542,17 +4611,17 @@
         <v>8.27</v>
       </c>
       <c r="E160" s="2">
-        <v>14.5415402915096</v>
+        <v>14.3455767835099</v>
       </c>
       <c r="F160" s="2">
-        <v>12.097964560969301</v>
+        <v>10.2927295159759</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2">
-        <v>14.3455767835099</v>
+        <v>14.5415402915096</v>
       </c>
       <c r="I160" s="2">
-        <v>10.2927295159759</v>
+        <v>12.097964560969301</v>
       </c>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
@@ -4568,17 +4637,17 @@
         <v>8.77</v>
       </c>
       <c r="E161" s="2">
-        <v>11.9000897811784</v>
+        <v>11.325903230663</v>
       </c>
       <c r="F161" s="2">
-        <v>12.994272823116299</v>
+        <v>9.1514098987577306</v>
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="2">
-        <v>11.325903230663</v>
+        <v>11.9000897811784</v>
       </c>
       <c r="I161" s="2">
-        <v>9.1514098987577306</v>
+        <v>12.994272823116299</v>
       </c>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
@@ -4594,17 +4663,17 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E162" s="2">
-        <v>15.2931054289802</v>
+        <v>13.5274569691375</v>
       </c>
       <c r="F162" s="2">
-        <v>7.17471448227242</v>
+        <v>10.421228152580801</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2">
-        <v>13.5274569691375</v>
+        <v>15.2931054289802</v>
       </c>
       <c r="I162" s="2">
-        <v>10.421228152580801</v>
+        <v>7.17471448227242</v>
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -4620,17 +4689,17 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E163" s="2">
-        <v>14.529614905593901</v>
+        <v>12.775122512790899</v>
       </c>
       <c r="F163" s="2">
-        <v>8.8827750011286302</v>
+        <v>9.0814113800618692</v>
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2">
-        <v>12.775122512790899</v>
+        <v>14.529614905593901</v>
       </c>
       <c r="I163" s="2">
-        <v>9.0814113800618692</v>
+        <v>8.8827750011286302</v>
       </c>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
@@ -4646,17 +4715,17 @@
         <v>8.98</v>
       </c>
       <c r="E164" s="2">
-        <v>12.591783837124201</v>
+        <v>11.9440146150112</v>
       </c>
       <c r="F164" s="2">
-        <v>11.890793331420999</v>
+        <v>8.9765651808923792</v>
       </c>
       <c r="G164" s="2"/>
       <c r="H164" s="2">
-        <v>11.9440146150112</v>
+        <v>12.591783837124201</v>
       </c>
       <c r="I164" s="2">
-        <v>8.9765651808923792</v>
+        <v>11.890793331420999</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
@@ -4672,17 +4741,17 @@
         <v>13.86</v>
       </c>
       <c r="E165" s="2">
-        <v>16.8816848455463</v>
+        <v>15.059755608091599</v>
       </c>
       <c r="F165" s="2">
-        <v>7.6368013942453397</v>
+        <v>10.702043603161099</v>
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2">
-        <v>15.059755608091599</v>
+        <v>16.8816848455463</v>
       </c>
       <c r="I165" s="2">
-        <v>10.702043603161099</v>
+        <v>7.6368013942453397</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
@@ -4698,17 +4767,17 @@
         <v>6.85</v>
       </c>
       <c r="E166" s="2">
-        <v>12.7559190601169</v>
+        <v>10.9902465133021</v>
       </c>
       <c r="F166" s="2">
-        <v>8.6992418519797194</v>
+        <v>8.3689989355523995</v>
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2">
-        <v>10.9902465133021</v>
+        <v>12.7559190601169</v>
       </c>
       <c r="I166" s="2">
-        <v>8.3689989355523995</v>
+        <v>8.6992418519797194</v>
       </c>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
@@ -4724,17 +4793,17 @@
         <v>7.7</v>
       </c>
       <c r="E167" s="2">
-        <v>13.549824615300199</v>
+        <v>13.632077802045901</v>
       </c>
       <c r="F167" s="2">
-        <v>12.372023563286501</v>
+        <v>9.2730588360637505</v>
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2">
-        <v>13.632077802045901</v>
+        <v>13.549824615300199</v>
       </c>
       <c r="I167" s="2">
-        <v>9.2730588360637505</v>
+        <v>12.372023563286501</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
@@ -4750,17 +4819,17 @@
         <v>10.85</v>
       </c>
       <c r="E168" s="2">
-        <v>15.9946229416237</v>
+        <v>14.780900690161401</v>
       </c>
       <c r="F168" s="2">
-        <v>9.8645749696447904</v>
+        <v>9.8488065071755599</v>
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="2">
-        <v>14.780900690161401</v>
+        <v>15.9946229416237</v>
       </c>
       <c r="I168" s="2">
-        <v>9.8488065071755599</v>
+        <v>9.8645749696447904</v>
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
@@ -4776,17 +4845,17 @@
         <v>10.85</v>
       </c>
       <c r="E169" s="2">
-        <v>15.944255478767399</v>
+        <v>14.2412233232736</v>
       </c>
       <c r="F169" s="2">
-        <v>6.8883652274646403</v>
+        <v>11.0820073822855</v>
       </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2">
-        <v>14.2412233232736</v>
+        <v>15.944255478767399</v>
       </c>
       <c r="I169" s="2">
-        <v>11.0820073822855</v>
+        <v>6.8883652274646403</v>
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
@@ -4802,17 +4871,17 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="E170" s="2">
-        <v>13.663519347785</v>
+        <v>12.0447083330774</v>
       </c>
       <c r="F170" s="2">
-        <v>9.2989371532798408</v>
+        <v>8.7905572383443307</v>
       </c>
       <c r="G170" s="2"/>
       <c r="H170" s="2">
-        <v>12.0447083330774</v>
+        <v>13.663519347785</v>
       </c>
       <c r="I170" s="2">
-        <v>8.7905572383443307</v>
+        <v>9.2989371532798408</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
@@ -4828,17 +4897,17 @@
         <v>12.5</v>
       </c>
       <c r="E171" s="2">
-        <v>15.3730484409607</v>
+        <v>15.373015277016201</v>
       </c>
       <c r="F171" s="2">
-        <v>12.817920035983599</v>
+        <v>10.5256065904995</v>
       </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2">
-        <v>15.373015277016201</v>
+        <v>15.3730484409607</v>
       </c>
       <c r="I171" s="2">
-        <v>10.5256065904995</v>
+        <v>12.817920035983599</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
@@ -4854,17 +4923,17 @@
         <v>10.45</v>
       </c>
       <c r="E172" s="2">
-        <v>15.702726929739599</v>
+        <v>14.2466654465257</v>
       </c>
       <c r="F172" s="2">
-        <v>9.5866203221225597</v>
+        <v>9.7893147389319104</v>
       </c>
       <c r="G172" s="2"/>
       <c r="H172" s="2">
-        <v>14.2466654465257</v>
+        <v>15.702726929739599</v>
       </c>
       <c r="I172" s="2">
-        <v>9.7893147389319104</v>
+        <v>9.5866203221225597</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
@@ -4880,17 +4949,17 @@
         <v>10.45</v>
       </c>
       <c r="E173" s="2">
-        <v>15.3743006036384</v>
+        <v>13.9763044483968</v>
       </c>
       <c r="F173" s="2">
-        <v>10.411709652157599</v>
+        <v>9.49743556264389</v>
       </c>
       <c r="G173" s="2"/>
       <c r="H173" s="2">
-        <v>13.9763044483968</v>
+        <v>15.3743006036384</v>
       </c>
       <c r="I173" s="2">
-        <v>9.49743556264389</v>
+        <v>10.411709652157599</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
@@ -4906,17 +4975,17 @@
         <v>10.45</v>
       </c>
       <c r="E174" s="2">
-        <v>17.143290793464999</v>
+        <v>15.3909873684883</v>
       </c>
       <c r="F174" s="2">
-        <v>7.8333041436847202</v>
+        <v>10.775069002270699</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2">
-        <v>15.3909873684883</v>
+        <v>17.143290793464999</v>
       </c>
       <c r="I174" s="2">
-        <v>10.775069002270699</v>
+        <v>7.8333041436847202</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
@@ -4932,17 +5001,17 @@
         <v>10.45</v>
       </c>
       <c r="E175" s="2">
-        <v>15.833683367178301</v>
+        <v>14.288521170793301</v>
       </c>
       <c r="F175" s="2">
-        <v>8.9124556215326294</v>
+        <v>10.020361846576</v>
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="2">
-        <v>14.288521170793301</v>
+        <v>15.833683367178301</v>
       </c>
       <c r="I175" s="2">
-        <v>10.020361846576</v>
+        <v>8.9124556215326294</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
@@ -4958,17 +5027,17 @@
         <v>16.260000000000002</v>
       </c>
       <c r="E176" s="2">
-        <v>24.837190031132199</v>
+        <v>27.633132789731</v>
       </c>
       <c r="F176" s="2">
-        <v>6.5680050735890001</v>
+        <v>16.996749636232799</v>
       </c>
       <c r="G176" s="2"/>
       <c r="H176" s="2">
-        <v>27.633132789731</v>
+        <v>24.837190031132199</v>
       </c>
       <c r="I176" s="2">
-        <v>16.996749636232799</v>
+        <v>6.5680050735890001</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
@@ -4984,17 +5053,17 @@
         <v>12.44</v>
       </c>
       <c r="E177" s="2">
-        <v>16.948389669298201</v>
+        <v>16.015667484426402</v>
       </c>
       <c r="F177" s="2">
-        <v>9.1566685023949397</v>
+        <v>10.7449954785704</v>
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2">
-        <v>16.015667484426402</v>
+        <v>16.948389669298201</v>
       </c>
       <c r="I177" s="2">
-        <v>10.7449954785704</v>
+        <v>9.1566685023949397</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
@@ -5010,17 +5079,17 @@
         <v>11.98</v>
       </c>
       <c r="E178" s="2">
-        <v>14.5281348069839</v>
+        <v>13.0116380058167</v>
       </c>
       <c r="F178" s="2">
-        <v>9.3342447707697502</v>
+        <v>9.2873598386610308</v>
       </c>
       <c r="G178" s="2"/>
       <c r="H178" s="2">
-        <v>13.0116380058167</v>
+        <v>14.5281348069839</v>
       </c>
       <c r="I178" s="2">
-        <v>9.2873598386610308</v>
+        <v>9.3342447707697502</v>
       </c>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
@@ -5036,17 +5105,17 @@
         <v>10.85</v>
       </c>
       <c r="E179" s="2">
-        <v>15.6186646300484</v>
+        <v>14.1609429143667</v>
       </c>
       <c r="F179" s="2">
-        <v>6.5137351368846597</v>
+        <v>11.4897463280856</v>
       </c>
       <c r="G179" s="2"/>
       <c r="H179" s="2">
-        <v>14.1609429143667</v>
+        <v>15.6186646300484</v>
       </c>
       <c r="I179" s="2">
-        <v>11.4897463280856</v>
+        <v>6.5137351368846597</v>
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
@@ -5062,17 +5131,17 @@
         <v>10.85</v>
       </c>
       <c r="E180" s="2">
-        <v>16.354002521839</v>
+        <v>14.9611706383767</v>
       </c>
       <c r="F180" s="2">
-        <v>6.16187934732414</v>
+        <v>12.2361887069376</v>
       </c>
       <c r="G180" s="2"/>
       <c r="H180" s="2">
-        <v>14.9611706383767</v>
+        <v>16.354002521839</v>
       </c>
       <c r="I180" s="2">
-        <v>12.2361887069376</v>
+        <v>6.16187934732414</v>
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
@@ -5088,17 +5157,17 @@
         <v>10.85</v>
       </c>
       <c r="E181" s="2">
-        <v>14.305208531441201</v>
+        <v>13.0418269123094</v>
       </c>
       <c r="F181" s="2">
-        <v>11.122448935322099</v>
+        <v>8.8689685289448104</v>
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2">
-        <v>13.0418269123094</v>
+        <v>14.305208531441201</v>
       </c>
       <c r="I181" s="2">
-        <v>8.8689685289448104</v>
+        <v>11.122448935322099</v>
       </c>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
@@ -5114,17 +5183,17 @@
         <v>8.56</v>
       </c>
       <c r="E182" s="2">
-        <v>12.898553968756501</v>
+        <v>13.6194242187276</v>
       </c>
       <c r="F182" s="2">
-        <v>13.547105701400101</v>
+        <v>8.4826971021452593</v>
       </c>
       <c r="G182" s="2"/>
       <c r="H182" s="2">
-        <v>13.6194242187276</v>
+        <v>12.898553968756501</v>
       </c>
       <c r="I182" s="2">
-        <v>8.4826971021452593</v>
+        <v>13.547105701400101</v>
       </c>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
@@ -5140,17 +5209,17 @@
         <v>15.06</v>
       </c>
       <c r="E183" s="2">
-        <v>20.314416896551801</v>
+        <v>21.415074400470601</v>
       </c>
       <c r="F183" s="2">
-        <v>10.791082078044001</v>
+        <v>13.039765363956599</v>
       </c>
       <c r="G183" s="2"/>
       <c r="H183" s="2">
-        <v>21.415074400470601</v>
+        <v>20.314416896551801</v>
       </c>
       <c r="I183" s="2">
-        <v>13.039765363956599</v>
+        <v>10.791082078044001</v>
       </c>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
@@ -5166,17 +5235,17 @@
         <v>8.5</v>
       </c>
       <c r="E184" s="2">
-        <v>14.223444108909501</v>
+        <v>12.577043507999401</v>
       </c>
       <c r="F184" s="2">
-        <v>8.1941995788765993</v>
+        <v>9.3960336611976896</v>
       </c>
       <c r="G184" s="2"/>
       <c r="H184" s="2">
-        <v>12.577043507999401</v>
+        <v>14.223444108909501</v>
       </c>
       <c r="I184" s="2">
-        <v>9.3960336611976896</v>
+        <v>8.1941995788765993</v>
       </c>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -5192,17 +5261,17 @@
         <v>10.85</v>
       </c>
       <c r="E185" s="2">
-        <v>16.392660062643699</v>
+        <v>15.956610986716701</v>
       </c>
       <c r="F185" s="2">
-        <v>7.9430737637115296</v>
+        <v>11.069726919730201</v>
       </c>
       <c r="G185" s="2"/>
       <c r="H185" s="2">
-        <v>15.956610986716701</v>
+        <v>16.392660062643699</v>
       </c>
       <c r="I185" s="2">
-        <v>11.069726919730201</v>
+        <v>7.9430737637115296</v>
       </c>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
@@ -5218,17 +5287,17 @@
         <v>11</v>
       </c>
       <c r="E186" s="2">
-        <v>77.920489357318701</v>
+        <v>60.676817893981898</v>
       </c>
       <c r="F186" s="2">
-        <v>54.3311436542024</v>
+        <v>21.953417658805801</v>
       </c>
       <c r="G186" s="2"/>
       <c r="H186" s="2">
-        <v>60.676817893981898</v>
+        <v>77.920489357318701</v>
       </c>
       <c r="I186" s="2">
-        <v>21.953417658805801</v>
+        <v>54.3311436542024</v>
       </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -5244,17 +5313,17 @@
         <v>8.77</v>
       </c>
       <c r="E187" s="2">
-        <v>14.679567664890801</v>
+        <v>13.218454247117</v>
       </c>
       <c r="F187" s="2">
-        <v>10.781110624072101</v>
+        <v>8.7938416635990109</v>
       </c>
       <c r="G187" s="2"/>
       <c r="H187" s="2">
-        <v>13.218454247117</v>
+        <v>14.679567664890801</v>
       </c>
       <c r="I187" s="2">
-        <v>8.7938416635990109</v>
+        <v>10.781110624072101</v>
       </c>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
@@ -5270,17 +5339,17 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="E188" s="2">
-        <v>13.552378323482101</v>
+        <v>11.907862019538801</v>
       </c>
       <c r="F188" s="2">
-        <v>8.7071601190582406</v>
+        <v>8.8742125466465893</v>
       </c>
       <c r="G188" s="2"/>
       <c r="H188" s="2">
-        <v>11.907862019538801</v>
+        <v>13.552378323482101</v>
       </c>
       <c r="I188" s="2">
-        <v>8.8742125466465893</v>
+        <v>8.7071601190582406</v>
       </c>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
@@ -5296,17 +5365,17 @@
         <v>16.260000000000002</v>
       </c>
       <c r="E189" s="2">
-        <v>27.5501312630367</v>
+        <v>28.577426280975299</v>
       </c>
       <c r="F189" s="2">
-        <v>6.0120788347128604</v>
+        <v>18.574298067092801</v>
       </c>
       <c r="G189" s="2"/>
       <c r="H189" s="2">
-        <v>28.577426280975299</v>
+        <v>27.5501312630367</v>
       </c>
       <c r="I189" s="2">
-        <v>18.574298067092801</v>
+        <v>6.0120788347128604</v>
       </c>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
@@ -5322,17 +5391,17 @@
         <v>10.66</v>
       </c>
       <c r="E190" s="2">
-        <v>11.075577618408699</v>
+        <v>9.34003036022186</v>
       </c>
       <c r="F190" s="2">
-        <v>7.8970609120439397</v>
+        <v>7.6832995176315304</v>
       </c>
       <c r="G190" s="2"/>
       <c r="H190" s="2">
-        <v>9.34003036022186</v>
+        <v>11.075577618408699</v>
       </c>
       <c r="I190" s="2">
-        <v>7.6832995176315304</v>
+        <v>7.8970609120439397</v>
       </c>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
@@ -5348,17 +5417,17 @@
         <v>7.39</v>
       </c>
       <c r="E191" s="2">
-        <v>10.647250440291799</v>
+        <v>8.9910619443654998</v>
       </c>
       <c r="F191" s="2">
-        <v>7.3585480251912996</v>
+        <v>7.81447255790233</v>
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="2">
-        <v>8.9910619443654998</v>
+        <v>10.647250440291799</v>
       </c>
       <c r="I191" s="2">
-        <v>7.81447255790233</v>
+        <v>7.3585480251912996</v>
       </c>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
@@ -5374,17 +5443,17 @@
         <v>37.950000000000003</v>
       </c>
       <c r="E192" s="2">
-        <v>63.747170289745597</v>
+        <v>68.426383709907498</v>
       </c>
       <c r="F192" s="2">
-        <v>40.1694621736183</v>
+        <v>31.6447318673133</v>
       </c>
       <c r="G192" s="2"/>
       <c r="H192" s="2">
-        <v>68.426383709907498</v>
+        <v>63.747170289745597</v>
       </c>
       <c r="I192" s="2">
-        <v>31.6447318673133</v>
+        <v>40.1694621736183</v>
       </c>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
@@ -5400,17 +5469,17 @@
         <v>49.2</v>
       </c>
       <c r="E193" s="2">
-        <v>69.245303035713704</v>
+        <v>61.45943069458</v>
       </c>
       <c r="F193" s="2">
-        <v>51.0801853841416</v>
+        <v>33.5984559059143</v>
       </c>
       <c r="G193" s="2"/>
       <c r="H193" s="2">
-        <v>61.45943069458</v>
+        <v>69.245303035713704</v>
       </c>
       <c r="I193" s="2">
-        <v>33.5984559059143</v>
+        <v>51.0801853841416</v>
       </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
@@ -5426,17 +5495,17 @@
         <v>49.49</v>
       </c>
       <c r="E194" s="2">
-        <v>83.192354819504502</v>
+        <v>74.765306313037797</v>
       </c>
       <c r="F194" s="2">
-        <v>50.114623688882403</v>
+        <v>31.0488740307092</v>
       </c>
       <c r="G194" s="2"/>
       <c r="H194" s="2">
-        <v>74.765306313037797</v>
+        <v>83.192354819504502</v>
       </c>
       <c r="I194" s="2">
-        <v>31.0488740307092</v>
+        <v>50.114623688882403</v>
       </c>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
@@ -5452,17 +5521,17 @@
         <v>47</v>
       </c>
       <c r="E195" s="2">
-        <v>79.100922825746196</v>
+        <v>69.910186529159503</v>
       </c>
       <c r="F195" s="2">
-        <v>48.170440970577303</v>
+        <v>42.369874119758599</v>
       </c>
       <c r="G195" s="2"/>
       <c r="H195" s="2">
-        <v>69.910186529159503</v>
+        <v>79.100922825746196</v>
       </c>
       <c r="I195" s="2">
-        <v>42.369874119758599</v>
+        <v>48.170440970577303</v>
       </c>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
@@ -5482,6 +5551,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f061828c-37f2-4d82-ab01-a22347f5f48d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DF36AAE048EDE84BAF19B53703615B6F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5dafad11a092b4294c7e32f7716432b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f061828c-37f2-4d82-ab01-a22347f5f48d" xmlns:ns4="c5ec91c2-be8d-4aee-a0aa-fb9a0692012f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8327e540c3c90a903b427810047f86e0" ns3:_="" ns4:_="">
     <xsd:import namespace="f061828c-37f2-4d82-ab01-a22347f5f48d"/>
@@ -5722,14 +5799,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f061828c-37f2-4d82-ab01-a22347f5f48d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3513954-208F-4673-B27D-E4158C4A6284}">
   <ds:schemaRefs>
@@ -5739,6 +5808,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{771E4222-E1DC-4976-BC0B-3428587A4537}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c5ec91c2-be8d-4aee-a0aa-fb9a0692012f"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f061828c-37f2-4d82-ab01-a22347f5f48d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A682F9A-190D-4C84-B0C6-D9AF20371EFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5755,21 +5841,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{771E4222-E1DC-4976-BC0B-3428587A4537}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c5ec91c2-be8d-4aee-a0aa-fb9a0692012f"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f061828c-37f2-4d82-ab01-a22347f5f48d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Resultant predictions and comparisons with Lin model.xlsx
+++ b/Resultant predictions and comparisons with Lin model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5251414_ad_unsw_edu_au/Documents/PhD/Paper/New model development/Final model and data/Data for upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5251414_ad_unsw_edu_au/Documents/PhD/Paper/New model development/Final model and data/Data for upload/Github upload/EG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{8CA20858-5EE1-4FFD-8BE8-50396BA2BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE09F1F-287E-4B80-AE9D-158DD82FA3A4}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{8CA20858-5EE1-4FFD-8BE8-50396BA2BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2F63BDC-1816-4173-8907-3FF7B0C48F82}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,54 +62,14 @@
     <t>Reference</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lin, H., Singh, S., Oh, J., Canbulat, I., Kang, W. H., Hebblewhite, B., &amp; Stacey, T. R. (2020). A combined approach for estimating horizontal principal stress magnitudes from borehole breakout data via artificial neural network and rock failure criterion. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>International Journal of Rock Mechanics and Mining Sciences</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>136</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, 104539. https://doi.org/10.1016/j.ijrmms.2020.104539</t>
-    </r>
+    <t>Lin, H., Singh, S., Oh, J., Canbulat, I., Kang, W.H., Hebblewhite, B., Stacey, T.R., 2020c. A combined approach for estimating horizontal principal stress magnitudes from borehole breakout data via artificial neural network and rock failure criterion. Int. J. Rock Mech. Min. Sci. 136, 104539. https://doi.org/10.1016/j.ijrmms.2020.104539</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +86,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -449,9 +402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E6870-61CB-4125-9E86-B7BDD3020B9F}">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
